--- a/artfynd/A 69079-2020.xlsx
+++ b/artfynd/A 69079-2020.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AY8"/>
+  <dimension ref="A1:AY43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1561,6 +1561,3728 @@
       </c>
       <c r="AY8" t="inlineStr"/>
     </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>112343605</v>
+      </c>
+      <c r="B9" t="n">
+        <v>99850</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>LC</t>
+        </is>
+      </c>
+      <c r="E9" t="n">
+        <v>221235</v>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Vårärt</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>Lathyrus vernus</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>(L.) Bernh.</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr"/>
+      <c r="P9" t="inlineStr">
+        <is>
+          <t>Stamnberget, Jmt</t>
+        </is>
+      </c>
+      <c r="Q9" t="n">
+        <v>503188</v>
+      </c>
+      <c r="R9" t="n">
+        <v>6984817</v>
+      </c>
+      <c r="S9" t="n">
+        <v>10</v>
+      </c>
+      <c r="T9" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="U9" t="inlineStr">
+        <is>
+          <t>Bräcke</t>
+        </is>
+      </c>
+      <c r="V9" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="W9" t="inlineStr">
+        <is>
+          <t>Sundsjö</t>
+        </is>
+      </c>
+      <c r="Y9" t="inlineStr">
+        <is>
+          <t>2023-09-21</t>
+        </is>
+      </c>
+      <c r="AA9" t="inlineStr">
+        <is>
+          <t>2023-09-21</t>
+        </is>
+      </c>
+      <c r="AD9" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE9" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG9" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT9" t="inlineStr"/>
+      <c r="AW9" t="inlineStr">
+        <is>
+          <t>Thomas Stålhandske</t>
+        </is>
+      </c>
+      <c r="AX9" t="inlineStr">
+        <is>
+          <t>Thomas Stålhandske</t>
+        </is>
+      </c>
+      <c r="AY9" t="inlineStr">
+        <is>
+          <t>LstZ naturskyddsfunktionens naturvärdesinventering 2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>112343675</v>
+      </c>
+      <c r="B10" t="n">
+        <v>78228</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E10" t="n">
+        <v>6453</v>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Vedskivlav</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>Hertelidea botryosa</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>(Fr.) Printzen &amp; Kantvilas</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr"/>
+      <c r="P10" t="inlineStr">
+        <is>
+          <t>Stamnberget, Jmt</t>
+        </is>
+      </c>
+      <c r="Q10" t="n">
+        <v>503198</v>
+      </c>
+      <c r="R10" t="n">
+        <v>6984799</v>
+      </c>
+      <c r="S10" t="n">
+        <v>10</v>
+      </c>
+      <c r="T10" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="U10" t="inlineStr">
+        <is>
+          <t>Bräcke</t>
+        </is>
+      </c>
+      <c r="V10" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="W10" t="inlineStr">
+        <is>
+          <t>Sundsjö</t>
+        </is>
+      </c>
+      <c r="Y10" t="inlineStr">
+        <is>
+          <t>2021-06-15</t>
+        </is>
+      </c>
+      <c r="AA10" t="inlineStr">
+        <is>
+          <t>2021-06-15</t>
+        </is>
+      </c>
+      <c r="AD10" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE10" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG10" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT10" t="inlineStr"/>
+      <c r="AW10" t="inlineStr">
+        <is>
+          <t>Thomas Stålhandske</t>
+        </is>
+      </c>
+      <c r="AX10" t="inlineStr">
+        <is>
+          <t>Thomas Stålhandske, Johan Staaf</t>
+        </is>
+      </c>
+      <c r="AY10" t="inlineStr">
+        <is>
+          <t>LstZ naturskyddsfunktionens naturvärdesinventering 2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>112343658</v>
+      </c>
+      <c r="B11" t="n">
+        <v>99850</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>LC</t>
+        </is>
+      </c>
+      <c r="E11" t="n">
+        <v>221235</v>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Vårärt</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>Lathyrus vernus</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>(L.) Bernh.</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr"/>
+      <c r="P11" t="inlineStr">
+        <is>
+          <t>Stamnberget, Jmt</t>
+        </is>
+      </c>
+      <c r="Q11" t="n">
+        <v>503443</v>
+      </c>
+      <c r="R11" t="n">
+        <v>6984718</v>
+      </c>
+      <c r="S11" t="n">
+        <v>10</v>
+      </c>
+      <c r="T11" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="U11" t="inlineStr">
+        <is>
+          <t>Bräcke</t>
+        </is>
+      </c>
+      <c r="V11" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="W11" t="inlineStr">
+        <is>
+          <t>Sundsjö</t>
+        </is>
+      </c>
+      <c r="Y11" t="inlineStr">
+        <is>
+          <t>2021-06-15</t>
+        </is>
+      </c>
+      <c r="AA11" t="inlineStr">
+        <is>
+          <t>2021-06-15</t>
+        </is>
+      </c>
+      <c r="AD11" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE11" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG11" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT11" t="inlineStr"/>
+      <c r="AW11" t="inlineStr">
+        <is>
+          <t>Thomas Stålhandske</t>
+        </is>
+      </c>
+      <c r="AX11" t="inlineStr">
+        <is>
+          <t>Thomas Stålhandske, Johan Staaf</t>
+        </is>
+      </c>
+      <c r="AY11" t="inlineStr">
+        <is>
+          <t>LstZ naturskyddsfunktionens naturvärdesinventering 2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>112343618</v>
+      </c>
+      <c r="B12" t="n">
+        <v>99850</v>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>LC</t>
+        </is>
+      </c>
+      <c r="E12" t="n">
+        <v>221235</v>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Vårärt</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>Lathyrus vernus</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>(L.) Bernh.</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr"/>
+      <c r="P12" t="inlineStr">
+        <is>
+          <t>Stamnberget, Jmt</t>
+        </is>
+      </c>
+      <c r="Q12" t="n">
+        <v>503442</v>
+      </c>
+      <c r="R12" t="n">
+        <v>6984729</v>
+      </c>
+      <c r="S12" t="n">
+        <v>10</v>
+      </c>
+      <c r="T12" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="U12" t="inlineStr">
+        <is>
+          <t>Bräcke</t>
+        </is>
+      </c>
+      <c r="V12" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="W12" t="inlineStr">
+        <is>
+          <t>Sundsjö</t>
+        </is>
+      </c>
+      <c r="Y12" t="inlineStr">
+        <is>
+          <t>2023-09-21</t>
+        </is>
+      </c>
+      <c r="AA12" t="inlineStr">
+        <is>
+          <t>2023-09-21</t>
+        </is>
+      </c>
+      <c r="AD12" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE12" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG12" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT12" t="inlineStr"/>
+      <c r="AW12" t="inlineStr">
+        <is>
+          <t>Thomas Stålhandske</t>
+        </is>
+      </c>
+      <c r="AX12" t="inlineStr">
+        <is>
+          <t>Thomas Stålhandske</t>
+        </is>
+      </c>
+      <c r="AY12" t="inlineStr">
+        <is>
+          <t>LstZ naturskyddsfunktionens naturvärdesinventering 2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>112343638</v>
+      </c>
+      <c r="B13" t="n">
+        <v>99850</v>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>LC</t>
+        </is>
+      </c>
+      <c r="E13" t="n">
+        <v>221235</v>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Vårärt</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>Lathyrus vernus</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>(L.) Bernh.</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr"/>
+      <c r="P13" t="inlineStr">
+        <is>
+          <t>Stamnberget, Jmt</t>
+        </is>
+      </c>
+      <c r="Q13" t="n">
+        <v>503363</v>
+      </c>
+      <c r="R13" t="n">
+        <v>6984798</v>
+      </c>
+      <c r="S13" t="n">
+        <v>10</v>
+      </c>
+      <c r="T13" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="U13" t="inlineStr">
+        <is>
+          <t>Bräcke</t>
+        </is>
+      </c>
+      <c r="V13" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="W13" t="inlineStr">
+        <is>
+          <t>Sundsjö</t>
+        </is>
+      </c>
+      <c r="Y13" t="inlineStr">
+        <is>
+          <t>2023-09-21</t>
+        </is>
+      </c>
+      <c r="AA13" t="inlineStr">
+        <is>
+          <t>2023-09-21</t>
+        </is>
+      </c>
+      <c r="AD13" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE13" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG13" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT13" t="inlineStr"/>
+      <c r="AW13" t="inlineStr">
+        <is>
+          <t>Thomas Stålhandske</t>
+        </is>
+      </c>
+      <c r="AX13" t="inlineStr">
+        <is>
+          <t>Thomas Stålhandske</t>
+        </is>
+      </c>
+      <c r="AY13" t="inlineStr">
+        <is>
+          <t>LstZ naturskyddsfunktionens naturvärdesinventering 2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>112343630</v>
+      </c>
+      <c r="B14" t="n">
+        <v>78732</v>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>LC</t>
+        </is>
+      </c>
+      <c r="E14" t="n">
+        <v>6463</v>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Bårdlav</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>Nephroma parile</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>(Ach.) Ach.</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr"/>
+      <c r="P14" t="inlineStr">
+        <is>
+          <t>Stamnberget, Jmt</t>
+        </is>
+      </c>
+      <c r="Q14" t="n">
+        <v>503087</v>
+      </c>
+      <c r="R14" t="n">
+        <v>6984818</v>
+      </c>
+      <c r="S14" t="n">
+        <v>10</v>
+      </c>
+      <c r="T14" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="U14" t="inlineStr">
+        <is>
+          <t>Bräcke</t>
+        </is>
+      </c>
+      <c r="V14" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="W14" t="inlineStr">
+        <is>
+          <t>Sundsjö</t>
+        </is>
+      </c>
+      <c r="Y14" t="inlineStr">
+        <is>
+          <t>2023-09-21</t>
+        </is>
+      </c>
+      <c r="AA14" t="inlineStr">
+        <is>
+          <t>2023-09-21</t>
+        </is>
+      </c>
+      <c r="AD14" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE14" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG14" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT14" t="inlineStr"/>
+      <c r="AW14" t="inlineStr">
+        <is>
+          <t>Thomas Stålhandske</t>
+        </is>
+      </c>
+      <c r="AX14" t="inlineStr">
+        <is>
+          <t>Thomas Stålhandske</t>
+        </is>
+      </c>
+      <c r="AY14" t="inlineStr">
+        <is>
+          <t>LstZ naturskyddsfunktionens naturvärdesinventering 2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>112343669</v>
+      </c>
+      <c r="B15" t="n">
+        <v>99850</v>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>LC</t>
+        </is>
+      </c>
+      <c r="E15" t="n">
+        <v>221235</v>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Vårärt</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>Lathyrus vernus</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>(L.) Bernh.</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr"/>
+      <c r="P15" t="inlineStr">
+        <is>
+          <t>Stamnberget, Jmt</t>
+        </is>
+      </c>
+      <c r="Q15" t="n">
+        <v>503175</v>
+      </c>
+      <c r="R15" t="n">
+        <v>6984834</v>
+      </c>
+      <c r="S15" t="n">
+        <v>10</v>
+      </c>
+      <c r="T15" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="U15" t="inlineStr">
+        <is>
+          <t>Bräcke</t>
+        </is>
+      </c>
+      <c r="V15" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="W15" t="inlineStr">
+        <is>
+          <t>Sundsjö</t>
+        </is>
+      </c>
+      <c r="Y15" t="inlineStr">
+        <is>
+          <t>2021-06-15</t>
+        </is>
+      </c>
+      <c r="AA15" t="inlineStr">
+        <is>
+          <t>2021-06-15</t>
+        </is>
+      </c>
+      <c r="AD15" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE15" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG15" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT15" t="inlineStr"/>
+      <c r="AW15" t="inlineStr">
+        <is>
+          <t>Thomas Stålhandske</t>
+        </is>
+      </c>
+      <c r="AX15" t="inlineStr">
+        <is>
+          <t>Thomas Stålhandske, Johan Staaf</t>
+        </is>
+      </c>
+      <c r="AY15" t="inlineStr">
+        <is>
+          <t>LstZ naturskyddsfunktionens naturvärdesinventering 2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>112343647</v>
+      </c>
+      <c r="B16" t="n">
+        <v>99850</v>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>LC</t>
+        </is>
+      </c>
+      <c r="E16" t="n">
+        <v>221235</v>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Vårärt</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>Lathyrus vernus</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>(L.) Bernh.</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr"/>
+      <c r="P16" t="inlineStr">
+        <is>
+          <t>Stamnberget, Jmt</t>
+        </is>
+      </c>
+      <c r="Q16" t="n">
+        <v>503285</v>
+      </c>
+      <c r="R16" t="n">
+        <v>6984742</v>
+      </c>
+      <c r="S16" t="n">
+        <v>10</v>
+      </c>
+      <c r="T16" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="U16" t="inlineStr">
+        <is>
+          <t>Bräcke</t>
+        </is>
+      </c>
+      <c r="V16" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="W16" t="inlineStr">
+        <is>
+          <t>Sundsjö</t>
+        </is>
+      </c>
+      <c r="Y16" t="inlineStr">
+        <is>
+          <t>2023-09-21</t>
+        </is>
+      </c>
+      <c r="AA16" t="inlineStr">
+        <is>
+          <t>2023-09-21</t>
+        </is>
+      </c>
+      <c r="AD16" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE16" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG16" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT16" t="inlineStr"/>
+      <c r="AW16" t="inlineStr">
+        <is>
+          <t>Thomas Stålhandske</t>
+        </is>
+      </c>
+      <c r="AX16" t="inlineStr">
+        <is>
+          <t>Thomas Stålhandske</t>
+        </is>
+      </c>
+      <c r="AY16" t="inlineStr">
+        <is>
+          <t>LstZ naturskyddsfunktionens naturvärdesinventering 2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>112343625</v>
+      </c>
+      <c r="B17" t="n">
+        <v>96720</v>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>VU</t>
+        </is>
+      </c>
+      <c r="E17" t="n">
+        <v>220787</v>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Knärot</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>Goodyera repens</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr"/>
+      <c r="P17" t="inlineStr">
+        <is>
+          <t>Stamnberget, Jmt</t>
+        </is>
+      </c>
+      <c r="Q17" t="n">
+        <v>503402</v>
+      </c>
+      <c r="R17" t="n">
+        <v>6984720</v>
+      </c>
+      <c r="S17" t="n">
+        <v>10</v>
+      </c>
+      <c r="T17" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="U17" t="inlineStr">
+        <is>
+          <t>Bräcke</t>
+        </is>
+      </c>
+      <c r="V17" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="W17" t="inlineStr">
+        <is>
+          <t>Sundsjö</t>
+        </is>
+      </c>
+      <c r="Y17" t="inlineStr">
+        <is>
+          <t>2023-09-21</t>
+        </is>
+      </c>
+      <c r="AA17" t="inlineStr">
+        <is>
+          <t>2023-09-21</t>
+        </is>
+      </c>
+      <c r="AD17" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE17" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG17" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT17" t="inlineStr"/>
+      <c r="AW17" t="inlineStr">
+        <is>
+          <t>Thomas Stålhandske</t>
+        </is>
+      </c>
+      <c r="AX17" t="inlineStr">
+        <is>
+          <t>Thomas Stålhandske</t>
+        </is>
+      </c>
+      <c r="AY17" t="inlineStr">
+        <is>
+          <t>LstZ naturskyddsfunktionens naturvärdesinventering 2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>112343635</v>
+      </c>
+      <c r="B18" t="n">
+        <v>99850</v>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>LC</t>
+        </is>
+      </c>
+      <c r="E18" t="n">
+        <v>221235</v>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Vårärt</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>Lathyrus vernus</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>(L.) Bernh.</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr"/>
+      <c r="P18" t="inlineStr">
+        <is>
+          <t>Stamnberget, Jmt</t>
+        </is>
+      </c>
+      <c r="Q18" t="n">
+        <v>503342</v>
+      </c>
+      <c r="R18" t="n">
+        <v>6984700</v>
+      </c>
+      <c r="S18" t="n">
+        <v>10</v>
+      </c>
+      <c r="T18" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="U18" t="inlineStr">
+        <is>
+          <t>Bräcke</t>
+        </is>
+      </c>
+      <c r="V18" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="W18" t="inlineStr">
+        <is>
+          <t>Sundsjö</t>
+        </is>
+      </c>
+      <c r="Y18" t="inlineStr">
+        <is>
+          <t>2023-09-21</t>
+        </is>
+      </c>
+      <c r="AA18" t="inlineStr">
+        <is>
+          <t>2023-09-21</t>
+        </is>
+      </c>
+      <c r="AD18" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE18" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG18" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT18" t="inlineStr"/>
+      <c r="AW18" t="inlineStr">
+        <is>
+          <t>Thomas Stålhandske</t>
+        </is>
+      </c>
+      <c r="AX18" t="inlineStr">
+        <is>
+          <t>Thomas Stålhandske</t>
+        </is>
+      </c>
+      <c r="AY18" t="inlineStr">
+        <is>
+          <t>LstZ naturskyddsfunktionens naturvärdesinventering 2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>112343662</v>
+      </c>
+      <c r="B19" t="n">
+        <v>98961</v>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>LC</t>
+        </is>
+      </c>
+      <c r="E19" t="n">
+        <v>222498</v>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>Blåsippa</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>Hepatica nobilis</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>Schreb.</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr"/>
+      <c r="P19" t="inlineStr">
+        <is>
+          <t>Stamnberget, Jmt</t>
+        </is>
+      </c>
+      <c r="Q19" t="n">
+        <v>503310</v>
+      </c>
+      <c r="R19" t="n">
+        <v>6984720</v>
+      </c>
+      <c r="S19" t="n">
+        <v>10</v>
+      </c>
+      <c r="T19" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="U19" t="inlineStr">
+        <is>
+          <t>Bräcke</t>
+        </is>
+      </c>
+      <c r="V19" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="W19" t="inlineStr">
+        <is>
+          <t>Sundsjö</t>
+        </is>
+      </c>
+      <c r="Y19" t="inlineStr">
+        <is>
+          <t>2021-06-15</t>
+        </is>
+      </c>
+      <c r="AA19" t="inlineStr">
+        <is>
+          <t>2021-06-15</t>
+        </is>
+      </c>
+      <c r="AD19" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE19" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG19" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT19" t="inlineStr"/>
+      <c r="AW19" t="inlineStr">
+        <is>
+          <t>Thomas Stålhandske</t>
+        </is>
+      </c>
+      <c r="AX19" t="inlineStr">
+        <is>
+          <t>Thomas Stålhandske, Johan Staaf</t>
+        </is>
+      </c>
+      <c r="AY19" t="inlineStr">
+        <is>
+          <t>LstZ naturskyddsfunktionens naturvärdesinventering 2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>112343631</v>
+      </c>
+      <c r="B20" t="n">
+        <v>90466</v>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>LC</t>
+        </is>
+      </c>
+      <c r="E20" t="n">
+        <v>4769</v>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>Svavelriska</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>Lactarius scrobiculatus</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>(Scop.:Fr.) Fr.</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr"/>
+      <c r="P20" t="inlineStr">
+        <is>
+          <t>Stamnberget, Jmt</t>
+        </is>
+      </c>
+      <c r="Q20" t="n">
+        <v>503318</v>
+      </c>
+      <c r="R20" t="n">
+        <v>6984760</v>
+      </c>
+      <c r="S20" t="n">
+        <v>10</v>
+      </c>
+      <c r="T20" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="U20" t="inlineStr">
+        <is>
+          <t>Bräcke</t>
+        </is>
+      </c>
+      <c r="V20" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="W20" t="inlineStr">
+        <is>
+          <t>Sundsjö</t>
+        </is>
+      </c>
+      <c r="Y20" t="inlineStr">
+        <is>
+          <t>2023-09-21</t>
+        </is>
+      </c>
+      <c r="AA20" t="inlineStr">
+        <is>
+          <t>2023-09-21</t>
+        </is>
+      </c>
+      <c r="AD20" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE20" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG20" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT20" t="inlineStr"/>
+      <c r="AW20" t="inlineStr">
+        <is>
+          <t>Thomas Stålhandske</t>
+        </is>
+      </c>
+      <c r="AX20" t="inlineStr">
+        <is>
+          <t>Thomas Stålhandske</t>
+        </is>
+      </c>
+      <c r="AY20" t="inlineStr">
+        <is>
+          <t>LstZ naturskyddsfunktionens naturvärdesinventering 2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>112343646</v>
+      </c>
+      <c r="B21" t="n">
+        <v>98961</v>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>LC</t>
+        </is>
+      </c>
+      <c r="E21" t="n">
+        <v>222498</v>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>Blåsippa</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>Hepatica nobilis</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>Schreb.</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr"/>
+      <c r="P21" t="inlineStr">
+        <is>
+          <t>Stamnberget, Jmt</t>
+        </is>
+      </c>
+      <c r="Q21" t="n">
+        <v>503285</v>
+      </c>
+      <c r="R21" t="n">
+        <v>6984742</v>
+      </c>
+      <c r="S21" t="n">
+        <v>10</v>
+      </c>
+      <c r="T21" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="U21" t="inlineStr">
+        <is>
+          <t>Bräcke</t>
+        </is>
+      </c>
+      <c r="V21" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="W21" t="inlineStr">
+        <is>
+          <t>Sundsjö</t>
+        </is>
+      </c>
+      <c r="Y21" t="inlineStr">
+        <is>
+          <t>2023-09-21</t>
+        </is>
+      </c>
+      <c r="AA21" t="inlineStr">
+        <is>
+          <t>2023-09-21</t>
+        </is>
+      </c>
+      <c r="AD21" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE21" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG21" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT21" t="inlineStr"/>
+      <c r="AW21" t="inlineStr">
+        <is>
+          <t>Thomas Stålhandske</t>
+        </is>
+      </c>
+      <c r="AX21" t="inlineStr">
+        <is>
+          <t>Thomas Stålhandske</t>
+        </is>
+      </c>
+      <c r="AY21" t="inlineStr">
+        <is>
+          <t>LstZ naturskyddsfunktionens naturvärdesinventering 2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>112343623</v>
+      </c>
+      <c r="B22" t="n">
+        <v>98961</v>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>LC</t>
+        </is>
+      </c>
+      <c r="E22" t="n">
+        <v>222498</v>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>Blåsippa</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>Hepatica nobilis</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>Schreb.</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr"/>
+      <c r="P22" t="inlineStr">
+        <is>
+          <t>Stamnberget, Jmt</t>
+        </is>
+      </c>
+      <c r="Q22" t="n">
+        <v>503183</v>
+      </c>
+      <c r="R22" t="n">
+        <v>6984817</v>
+      </c>
+      <c r="S22" t="n">
+        <v>10</v>
+      </c>
+      <c r="T22" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="U22" t="inlineStr">
+        <is>
+          <t>Bräcke</t>
+        </is>
+      </c>
+      <c r="V22" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="W22" t="inlineStr">
+        <is>
+          <t>Sundsjö</t>
+        </is>
+      </c>
+      <c r="Y22" t="inlineStr">
+        <is>
+          <t>2023-09-21</t>
+        </is>
+      </c>
+      <c r="AA22" t="inlineStr">
+        <is>
+          <t>2023-09-21</t>
+        </is>
+      </c>
+      <c r="AD22" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE22" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG22" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT22" t="inlineStr"/>
+      <c r="AW22" t="inlineStr">
+        <is>
+          <t>Thomas Stålhandske</t>
+        </is>
+      </c>
+      <c r="AX22" t="inlineStr">
+        <is>
+          <t>Thomas Stålhandske</t>
+        </is>
+      </c>
+      <c r="AY22" t="inlineStr">
+        <is>
+          <t>LstZ naturskyddsfunktionens naturvärdesinventering 2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>112343606</v>
+      </c>
+      <c r="B23" t="n">
+        <v>99850</v>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>LC</t>
+        </is>
+      </c>
+      <c r="E23" t="n">
+        <v>221235</v>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>Vårärt</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>Lathyrus vernus</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>(L.) Bernh.</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr"/>
+      <c r="P23" t="inlineStr">
+        <is>
+          <t>Stamnberget, Jmt</t>
+        </is>
+      </c>
+      <c r="Q23" t="n">
+        <v>503317</v>
+      </c>
+      <c r="R23" t="n">
+        <v>6984760</v>
+      </c>
+      <c r="S23" t="n">
+        <v>10</v>
+      </c>
+      <c r="T23" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="U23" t="inlineStr">
+        <is>
+          <t>Bräcke</t>
+        </is>
+      </c>
+      <c r="V23" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="W23" t="inlineStr">
+        <is>
+          <t>Sundsjö</t>
+        </is>
+      </c>
+      <c r="Y23" t="inlineStr">
+        <is>
+          <t>2023-09-21</t>
+        </is>
+      </c>
+      <c r="AA23" t="inlineStr">
+        <is>
+          <t>2023-09-21</t>
+        </is>
+      </c>
+      <c r="AD23" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE23" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG23" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT23" t="inlineStr"/>
+      <c r="AW23" t="inlineStr">
+        <is>
+          <t>Thomas Stålhandske</t>
+        </is>
+      </c>
+      <c r="AX23" t="inlineStr">
+        <is>
+          <t>Thomas Stålhandske</t>
+        </is>
+      </c>
+      <c r="AY23" t="inlineStr">
+        <is>
+          <t>LstZ naturskyddsfunktionens naturvärdesinventering 2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>112343615</v>
+      </c>
+      <c r="B24" t="n">
+        <v>98961</v>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>LC</t>
+        </is>
+      </c>
+      <c r="E24" t="n">
+        <v>222498</v>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>Blåsippa</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>Hepatica nobilis</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>Schreb.</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr"/>
+      <c r="P24" t="inlineStr">
+        <is>
+          <t>Stamnberget, Jmt</t>
+        </is>
+      </c>
+      <c r="Q24" t="n">
+        <v>503361</v>
+      </c>
+      <c r="R24" t="n">
+        <v>6984622</v>
+      </c>
+      <c r="S24" t="n">
+        <v>10</v>
+      </c>
+      <c r="T24" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="U24" t="inlineStr">
+        <is>
+          <t>Bräcke</t>
+        </is>
+      </c>
+      <c r="V24" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="W24" t="inlineStr">
+        <is>
+          <t>Sundsjö</t>
+        </is>
+      </c>
+      <c r="Y24" t="inlineStr">
+        <is>
+          <t>2023-09-21</t>
+        </is>
+      </c>
+      <c r="AA24" t="inlineStr">
+        <is>
+          <t>2023-09-21</t>
+        </is>
+      </c>
+      <c r="AD24" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE24" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG24" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT24" t="inlineStr"/>
+      <c r="AW24" t="inlineStr">
+        <is>
+          <t>Thomas Stålhandske</t>
+        </is>
+      </c>
+      <c r="AX24" t="inlineStr">
+        <is>
+          <t>Thomas Stålhandske</t>
+        </is>
+      </c>
+      <c r="AY24" t="inlineStr">
+        <is>
+          <t>LstZ naturskyddsfunktionens naturvärdesinventering 2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>112343668</v>
+      </c>
+      <c r="B25" t="n">
+        <v>96740</v>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>LC</t>
+        </is>
+      </c>
+      <c r="E25" t="n">
+        <v>221952</v>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>Spindelblomster</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>Neottia cordata</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>(L.) Rich.</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr"/>
+      <c r="P25" t="inlineStr">
+        <is>
+          <t>Stamnberget, Jmt</t>
+        </is>
+      </c>
+      <c r="Q25" t="n">
+        <v>503178</v>
+      </c>
+      <c r="R25" t="n">
+        <v>6984830</v>
+      </c>
+      <c r="S25" t="n">
+        <v>10</v>
+      </c>
+      <c r="T25" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="U25" t="inlineStr">
+        <is>
+          <t>Bräcke</t>
+        </is>
+      </c>
+      <c r="V25" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="W25" t="inlineStr">
+        <is>
+          <t>Sundsjö</t>
+        </is>
+      </c>
+      <c r="Y25" t="inlineStr">
+        <is>
+          <t>2021-06-15</t>
+        </is>
+      </c>
+      <c r="AA25" t="inlineStr">
+        <is>
+          <t>2021-06-15</t>
+        </is>
+      </c>
+      <c r="AD25" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE25" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG25" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT25" t="inlineStr"/>
+      <c r="AW25" t="inlineStr">
+        <is>
+          <t>Thomas Stålhandske</t>
+        </is>
+      </c>
+      <c r="AX25" t="inlineStr">
+        <is>
+          <t>Thomas Stålhandske, Johan Staaf</t>
+        </is>
+      </c>
+      <c r="AY25" t="inlineStr">
+        <is>
+          <t>LstZ naturskyddsfunktionens naturvärdesinventering 2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>112343629</v>
+      </c>
+      <c r="B26" t="n">
+        <v>56446</v>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E26" t="n">
+        <v>100049</v>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>Spillkråka</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>Dryocopus martius</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr"/>
+      <c r="K26" t="inlineStr"/>
+      <c r="L26" t="inlineStr"/>
+      <c r="M26" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
+      <c r="N26" t="inlineStr"/>
+      <c r="P26" t="inlineStr">
+        <is>
+          <t>Stamnberget, Jmt</t>
+        </is>
+      </c>
+      <c r="Q26" t="n">
+        <v>503132</v>
+      </c>
+      <c r="R26" t="n">
+        <v>6984774</v>
+      </c>
+      <c r="S26" t="n">
+        <v>10</v>
+      </c>
+      <c r="T26" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="U26" t="inlineStr">
+        <is>
+          <t>Bräcke</t>
+        </is>
+      </c>
+      <c r="V26" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="W26" t="inlineStr">
+        <is>
+          <t>Sundsjö</t>
+        </is>
+      </c>
+      <c r="Y26" t="inlineStr">
+        <is>
+          <t>2023-09-21</t>
+        </is>
+      </c>
+      <c r="AA26" t="inlineStr">
+        <is>
+          <t>2023-09-21</t>
+        </is>
+      </c>
+      <c r="AD26" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE26" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG26" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT26" t="inlineStr"/>
+      <c r="AW26" t="inlineStr">
+        <is>
+          <t>Thomas Stålhandske</t>
+        </is>
+      </c>
+      <c r="AX26" t="inlineStr">
+        <is>
+          <t>Thomas Stålhandske</t>
+        </is>
+      </c>
+      <c r="AY26" t="inlineStr">
+        <is>
+          <t>LstZ naturskyddsfunktionens naturvärdesinventering 2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>112343645</v>
+      </c>
+      <c r="B27" t="n">
+        <v>98961</v>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>LC</t>
+        </is>
+      </c>
+      <c r="E27" t="n">
+        <v>222498</v>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>Blåsippa</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>Hepatica nobilis</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>Schreb.</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr"/>
+      <c r="P27" t="inlineStr">
+        <is>
+          <t>Stamnberget, Jmt</t>
+        </is>
+      </c>
+      <c r="Q27" t="n">
+        <v>503188</v>
+      </c>
+      <c r="R27" t="n">
+        <v>6984817</v>
+      </c>
+      <c r="S27" t="n">
+        <v>10</v>
+      </c>
+      <c r="T27" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="U27" t="inlineStr">
+        <is>
+          <t>Bräcke</t>
+        </is>
+      </c>
+      <c r="V27" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="W27" t="inlineStr">
+        <is>
+          <t>Sundsjö</t>
+        </is>
+      </c>
+      <c r="Y27" t="inlineStr">
+        <is>
+          <t>2023-09-21</t>
+        </is>
+      </c>
+      <c r="AA27" t="inlineStr">
+        <is>
+          <t>2023-09-21</t>
+        </is>
+      </c>
+      <c r="AD27" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE27" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG27" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT27" t="inlineStr"/>
+      <c r="AW27" t="inlineStr">
+        <is>
+          <t>Thomas Stålhandske</t>
+        </is>
+      </c>
+      <c r="AX27" t="inlineStr">
+        <is>
+          <t>Thomas Stålhandske</t>
+        </is>
+      </c>
+      <c r="AY27" t="inlineStr">
+        <is>
+          <t>LstZ naturskyddsfunktionens naturvärdesinventering 2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>112343636</v>
+      </c>
+      <c r="B28" t="n">
+        <v>97051</v>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>LC</t>
+        </is>
+      </c>
+      <c r="E28" t="n">
+        <v>219880</v>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>Kransrams</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>Polygonatum verticillatum</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>(L.) All.</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr"/>
+      <c r="P28" t="inlineStr">
+        <is>
+          <t>Stamnberget, Jmt</t>
+        </is>
+      </c>
+      <c r="Q28" t="n">
+        <v>503359</v>
+      </c>
+      <c r="R28" t="n">
+        <v>6984797</v>
+      </c>
+      <c r="S28" t="n">
+        <v>10</v>
+      </c>
+      <c r="T28" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="U28" t="inlineStr">
+        <is>
+          <t>Bräcke</t>
+        </is>
+      </c>
+      <c r="V28" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="W28" t="inlineStr">
+        <is>
+          <t>Sundsjö</t>
+        </is>
+      </c>
+      <c r="Y28" t="inlineStr">
+        <is>
+          <t>2023-09-21</t>
+        </is>
+      </c>
+      <c r="AA28" t="inlineStr">
+        <is>
+          <t>2023-09-21</t>
+        </is>
+      </c>
+      <c r="AD28" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE28" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG28" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT28" t="inlineStr"/>
+      <c r="AW28" t="inlineStr">
+        <is>
+          <t>Thomas Stålhandske</t>
+        </is>
+      </c>
+      <c r="AX28" t="inlineStr">
+        <is>
+          <t>Thomas Stålhandske</t>
+        </is>
+      </c>
+      <c r="AY28" t="inlineStr">
+        <is>
+          <t>LstZ naturskyddsfunktionens naturvärdesinventering 2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>112343640</v>
+      </c>
+      <c r="B29" t="n">
+        <v>78699</v>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E29" t="n">
+        <v>6458</v>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>Lunglav</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>Lobaria pulmonaria</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>(L.) Hoffm.</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr"/>
+      <c r="P29" t="inlineStr">
+        <is>
+          <t>Stamnberget, Jmt</t>
+        </is>
+      </c>
+      <c r="Q29" t="n">
+        <v>503202</v>
+      </c>
+      <c r="R29" t="n">
+        <v>6984811</v>
+      </c>
+      <c r="S29" t="n">
+        <v>10</v>
+      </c>
+      <c r="T29" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="U29" t="inlineStr">
+        <is>
+          <t>Bräcke</t>
+        </is>
+      </c>
+      <c r="V29" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="W29" t="inlineStr">
+        <is>
+          <t>Sundsjö</t>
+        </is>
+      </c>
+      <c r="Y29" t="inlineStr">
+        <is>
+          <t>2023-09-21</t>
+        </is>
+      </c>
+      <c r="AA29" t="inlineStr">
+        <is>
+          <t>2023-09-21</t>
+        </is>
+      </c>
+      <c r="AD29" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE29" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG29" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT29" t="inlineStr"/>
+      <c r="AW29" t="inlineStr">
+        <is>
+          <t>Thomas Stålhandske</t>
+        </is>
+      </c>
+      <c r="AX29" t="inlineStr">
+        <is>
+          <t>Thomas Stålhandske</t>
+        </is>
+      </c>
+      <c r="AY29" t="inlineStr">
+        <is>
+          <t>LstZ naturskyddsfunktionens naturvärdesinventering 2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>112343649</v>
+      </c>
+      <c r="B30" t="n">
+        <v>99850</v>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>LC</t>
+        </is>
+      </c>
+      <c r="E30" t="n">
+        <v>221235</v>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>Vårärt</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>Lathyrus vernus</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>(L.) Bernh.</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr"/>
+      <c r="P30" t="inlineStr">
+        <is>
+          <t>Stamnberget, Jmt</t>
+        </is>
+      </c>
+      <c r="Q30" t="n">
+        <v>503251</v>
+      </c>
+      <c r="R30" t="n">
+        <v>6984665</v>
+      </c>
+      <c r="S30" t="n">
+        <v>10</v>
+      </c>
+      <c r="T30" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="U30" t="inlineStr">
+        <is>
+          <t>Bräcke</t>
+        </is>
+      </c>
+      <c r="V30" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="W30" t="inlineStr">
+        <is>
+          <t>Sundsjö</t>
+        </is>
+      </c>
+      <c r="Y30" t="inlineStr">
+        <is>
+          <t>2023-09-21</t>
+        </is>
+      </c>
+      <c r="AA30" t="inlineStr">
+        <is>
+          <t>2023-09-21</t>
+        </is>
+      </c>
+      <c r="AD30" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE30" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG30" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT30" t="inlineStr"/>
+      <c r="AW30" t="inlineStr">
+        <is>
+          <t>Thomas Stålhandske</t>
+        </is>
+      </c>
+      <c r="AX30" t="inlineStr">
+        <is>
+          <t>Thomas Stålhandske</t>
+        </is>
+      </c>
+      <c r="AY30" t="inlineStr">
+        <is>
+          <t>LstZ naturskyddsfunktionens naturvärdesinventering 2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>112343621</v>
+      </c>
+      <c r="B31" t="n">
+        <v>90466</v>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>LC</t>
+        </is>
+      </c>
+      <c r="E31" t="n">
+        <v>4769</v>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>Svavelriska</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>Lactarius scrobiculatus</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>(Scop.:Fr.) Fr.</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr"/>
+      <c r="P31" t="inlineStr">
+        <is>
+          <t>Stamnberget, Jmt</t>
+        </is>
+      </c>
+      <c r="Q31" t="n">
+        <v>503345</v>
+      </c>
+      <c r="R31" t="n">
+        <v>6984805</v>
+      </c>
+      <c r="S31" t="n">
+        <v>10</v>
+      </c>
+      <c r="T31" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="U31" t="inlineStr">
+        <is>
+          <t>Bräcke</t>
+        </is>
+      </c>
+      <c r="V31" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="W31" t="inlineStr">
+        <is>
+          <t>Sundsjö</t>
+        </is>
+      </c>
+      <c r="Y31" t="inlineStr">
+        <is>
+          <t>2023-09-21</t>
+        </is>
+      </c>
+      <c r="AA31" t="inlineStr">
+        <is>
+          <t>2023-09-21</t>
+        </is>
+      </c>
+      <c r="AD31" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE31" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG31" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT31" t="inlineStr"/>
+      <c r="AW31" t="inlineStr">
+        <is>
+          <t>Thomas Stålhandske</t>
+        </is>
+      </c>
+      <c r="AX31" t="inlineStr">
+        <is>
+          <t>Thomas Stålhandske</t>
+        </is>
+      </c>
+      <c r="AY31" t="inlineStr">
+        <is>
+          <t>LstZ naturskyddsfunktionens naturvärdesinventering 2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>112343657</v>
+      </c>
+      <c r="B32" t="n">
+        <v>78699</v>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E32" t="n">
+        <v>6458</v>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>Lunglav</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>Lobaria pulmonaria</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>(L.) Hoffm.</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr"/>
+      <c r="P32" t="inlineStr">
+        <is>
+          <t>Stamnberget, Jmt</t>
+        </is>
+      </c>
+      <c r="Q32" t="n">
+        <v>503332</v>
+      </c>
+      <c r="R32" t="n">
+        <v>6984649</v>
+      </c>
+      <c r="S32" t="n">
+        <v>10</v>
+      </c>
+      <c r="T32" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="U32" t="inlineStr">
+        <is>
+          <t>Bräcke</t>
+        </is>
+      </c>
+      <c r="V32" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="W32" t="inlineStr">
+        <is>
+          <t>Sundsjö</t>
+        </is>
+      </c>
+      <c r="Y32" t="inlineStr">
+        <is>
+          <t>2021-06-15</t>
+        </is>
+      </c>
+      <c r="AA32" t="inlineStr">
+        <is>
+          <t>2021-06-15</t>
+        </is>
+      </c>
+      <c r="AD32" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE32" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG32" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT32" t="inlineStr"/>
+      <c r="AW32" t="inlineStr">
+        <is>
+          <t>Thomas Stålhandske</t>
+        </is>
+      </c>
+      <c r="AX32" t="inlineStr">
+        <is>
+          <t>Thomas Stålhandske, Johan Staaf</t>
+        </is>
+      </c>
+      <c r="AY32" t="inlineStr">
+        <is>
+          <t>LstZ naturskyddsfunktionens naturvärdesinventering 2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>112343632</v>
+      </c>
+      <c r="B33" t="n">
+        <v>78699</v>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E33" t="n">
+        <v>6458</v>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>Lunglav</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>Lobaria pulmonaria</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>(L.) Hoffm.</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr"/>
+      <c r="P33" t="inlineStr">
+        <is>
+          <t>Stamnberget, Jmt</t>
+        </is>
+      </c>
+      <c r="Q33" t="n">
+        <v>503189</v>
+      </c>
+      <c r="R33" t="n">
+        <v>6984730</v>
+      </c>
+      <c r="S33" t="n">
+        <v>10</v>
+      </c>
+      <c r="T33" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="U33" t="inlineStr">
+        <is>
+          <t>Bräcke</t>
+        </is>
+      </c>
+      <c r="V33" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="W33" t="inlineStr">
+        <is>
+          <t>Sundsjö</t>
+        </is>
+      </c>
+      <c r="Y33" t="inlineStr">
+        <is>
+          <t>2023-09-21</t>
+        </is>
+      </c>
+      <c r="AA33" t="inlineStr">
+        <is>
+          <t>2023-09-21</t>
+        </is>
+      </c>
+      <c r="AD33" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE33" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG33" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT33" t="inlineStr"/>
+      <c r="AW33" t="inlineStr">
+        <is>
+          <t>Thomas Stålhandske</t>
+        </is>
+      </c>
+      <c r="AX33" t="inlineStr">
+        <is>
+          <t>Thomas Stålhandske</t>
+        </is>
+      </c>
+      <c r="AY33" t="inlineStr">
+        <is>
+          <t>LstZ naturskyddsfunktionens naturvärdesinventering 2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>112343641</v>
+      </c>
+      <c r="B34" t="n">
+        <v>99850</v>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>LC</t>
+        </is>
+      </c>
+      <c r="E34" t="n">
+        <v>221235</v>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>Vårärt</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>Lathyrus vernus</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>(L.) Bernh.</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr"/>
+      <c r="P34" t="inlineStr">
+        <is>
+          <t>Stamnberget, Jmt</t>
+        </is>
+      </c>
+      <c r="Q34" t="n">
+        <v>503245</v>
+      </c>
+      <c r="R34" t="n">
+        <v>6984772</v>
+      </c>
+      <c r="S34" t="n">
+        <v>10</v>
+      </c>
+      <c r="T34" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="U34" t="inlineStr">
+        <is>
+          <t>Bräcke</t>
+        </is>
+      </c>
+      <c r="V34" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="W34" t="inlineStr">
+        <is>
+          <t>Sundsjö</t>
+        </is>
+      </c>
+      <c r="Y34" t="inlineStr">
+        <is>
+          <t>2023-09-21</t>
+        </is>
+      </c>
+      <c r="AA34" t="inlineStr">
+        <is>
+          <t>2023-09-21</t>
+        </is>
+      </c>
+      <c r="AD34" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE34" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG34" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT34" t="inlineStr"/>
+      <c r="AW34" t="inlineStr">
+        <is>
+          <t>Thomas Stålhandske</t>
+        </is>
+      </c>
+      <c r="AX34" t="inlineStr">
+        <is>
+          <t>Thomas Stålhandske</t>
+        </is>
+      </c>
+      <c r="AY34" t="inlineStr">
+        <is>
+          <t>LstZ naturskyddsfunktionens naturvärdesinventering 2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>112343659</v>
+      </c>
+      <c r="B35" t="n">
+        <v>89539</v>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E35" t="n">
+        <v>1202</v>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>Ullticka</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>Phellinidium ferrugineofuscum</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr"/>
+      <c r="P35" t="inlineStr">
+        <is>
+          <t>Stamnberget, Jmt</t>
+        </is>
+      </c>
+      <c r="Q35" t="n">
+        <v>503414</v>
+      </c>
+      <c r="R35" t="n">
+        <v>6984754</v>
+      </c>
+      <c r="S35" t="n">
+        <v>10</v>
+      </c>
+      <c r="T35" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="U35" t="inlineStr">
+        <is>
+          <t>Bräcke</t>
+        </is>
+      </c>
+      <c r="V35" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="W35" t="inlineStr">
+        <is>
+          <t>Sundsjö</t>
+        </is>
+      </c>
+      <c r="Y35" t="inlineStr">
+        <is>
+          <t>2021-06-15</t>
+        </is>
+      </c>
+      <c r="AA35" t="inlineStr">
+        <is>
+          <t>2021-06-15</t>
+        </is>
+      </c>
+      <c r="AD35" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE35" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG35" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT35" t="inlineStr"/>
+      <c r="AW35" t="inlineStr">
+        <is>
+          <t>Thomas Stålhandske</t>
+        </is>
+      </c>
+      <c r="AX35" t="inlineStr">
+        <is>
+          <t>Thomas Stålhandske, Johan Staaf</t>
+        </is>
+      </c>
+      <c r="AY35" t="inlineStr">
+        <is>
+          <t>LstZ naturskyddsfunktionens naturvärdesinventering 2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>112343634</v>
+      </c>
+      <c r="B36" t="n">
+        <v>98961</v>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>LC</t>
+        </is>
+      </c>
+      <c r="E36" t="n">
+        <v>222498</v>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>Blåsippa</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>Hepatica nobilis</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>Schreb.</t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr"/>
+      <c r="P36" t="inlineStr">
+        <is>
+          <t>Stamnberget, Jmt</t>
+        </is>
+      </c>
+      <c r="Q36" t="n">
+        <v>503363</v>
+      </c>
+      <c r="R36" t="n">
+        <v>6984798</v>
+      </c>
+      <c r="S36" t="n">
+        <v>10</v>
+      </c>
+      <c r="T36" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="U36" t="inlineStr">
+        <is>
+          <t>Bräcke</t>
+        </is>
+      </c>
+      <c r="V36" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="W36" t="inlineStr">
+        <is>
+          <t>Sundsjö</t>
+        </is>
+      </c>
+      <c r="Y36" t="inlineStr">
+        <is>
+          <t>2023-09-21</t>
+        </is>
+      </c>
+      <c r="AA36" t="inlineStr">
+        <is>
+          <t>2023-09-21</t>
+        </is>
+      </c>
+      <c r="AD36" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE36" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG36" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT36" t="inlineStr"/>
+      <c r="AW36" t="inlineStr">
+        <is>
+          <t>Thomas Stålhandske</t>
+        </is>
+      </c>
+      <c r="AX36" t="inlineStr">
+        <is>
+          <t>Thomas Stålhandske</t>
+        </is>
+      </c>
+      <c r="AY36" t="inlineStr">
+        <is>
+          <t>LstZ naturskyddsfunktionens naturvärdesinventering 2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>112343622</v>
+      </c>
+      <c r="B37" t="n">
+        <v>99850</v>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>LC</t>
+        </is>
+      </c>
+      <c r="E37" t="n">
+        <v>221235</v>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>Vårärt</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>Lathyrus vernus</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>(L.) Bernh.</t>
+        </is>
+      </c>
+      <c r="I37" t="inlineStr"/>
+      <c r="P37" t="inlineStr">
+        <is>
+          <t>Stamnberget, Jmt</t>
+        </is>
+      </c>
+      <c r="Q37" t="n">
+        <v>503176</v>
+      </c>
+      <c r="R37" t="n">
+        <v>6984833</v>
+      </c>
+      <c r="S37" t="n">
+        <v>10</v>
+      </c>
+      <c r="T37" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="U37" t="inlineStr">
+        <is>
+          <t>Bräcke</t>
+        </is>
+      </c>
+      <c r="V37" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="W37" t="inlineStr">
+        <is>
+          <t>Sundsjö</t>
+        </is>
+      </c>
+      <c r="Y37" t="inlineStr">
+        <is>
+          <t>2023-09-21</t>
+        </is>
+      </c>
+      <c r="AA37" t="inlineStr">
+        <is>
+          <t>2023-09-21</t>
+        </is>
+      </c>
+      <c r="AD37" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE37" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG37" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT37" t="inlineStr"/>
+      <c r="AW37" t="inlineStr">
+        <is>
+          <t>Thomas Stålhandske</t>
+        </is>
+      </c>
+      <c r="AX37" t="inlineStr">
+        <is>
+          <t>Thomas Stålhandske</t>
+        </is>
+      </c>
+      <c r="AY37" t="inlineStr">
+        <is>
+          <t>LstZ naturskyddsfunktionens naturvärdesinventering 2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>112343676</v>
+      </c>
+      <c r="B38" t="n">
+        <v>78699</v>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E38" t="n">
+        <v>6458</v>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>Lunglav</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>Lobaria pulmonaria</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>(L.) Hoffm.</t>
+        </is>
+      </c>
+      <c r="I38" t="inlineStr"/>
+      <c r="P38" t="inlineStr">
+        <is>
+          <t>Stamnberget, Jmt</t>
+        </is>
+      </c>
+      <c r="Q38" t="n">
+        <v>503220</v>
+      </c>
+      <c r="R38" t="n">
+        <v>6984721</v>
+      </c>
+      <c r="S38" t="n">
+        <v>10</v>
+      </c>
+      <c r="T38" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="U38" t="inlineStr">
+        <is>
+          <t>Bräcke</t>
+        </is>
+      </c>
+      <c r="V38" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="W38" t="inlineStr">
+        <is>
+          <t>Sundsjö</t>
+        </is>
+      </c>
+      <c r="Y38" t="inlineStr">
+        <is>
+          <t>2021-06-15</t>
+        </is>
+      </c>
+      <c r="AA38" t="inlineStr">
+        <is>
+          <t>2021-06-15</t>
+        </is>
+      </c>
+      <c r="AD38" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE38" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG38" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT38" t="inlineStr"/>
+      <c r="AW38" t="inlineStr">
+        <is>
+          <t>Thomas Stålhandske</t>
+        </is>
+      </c>
+      <c r="AX38" t="inlineStr">
+        <is>
+          <t>Thomas Stålhandske, Johan Staaf</t>
+        </is>
+      </c>
+      <c r="AY38" t="inlineStr">
+        <is>
+          <t>LstZ naturskyddsfunktionens naturvärdesinventering 2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>112343627</v>
+      </c>
+      <c r="B39" t="n">
+        <v>78699</v>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E39" t="n">
+        <v>6458</v>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>Lunglav</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>Lobaria pulmonaria</t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>(L.) Hoffm.</t>
+        </is>
+      </c>
+      <c r="I39" t="inlineStr"/>
+      <c r="P39" t="inlineStr">
+        <is>
+          <t>Stamnberget, Jmt</t>
+        </is>
+      </c>
+      <c r="Q39" t="n">
+        <v>503086</v>
+      </c>
+      <c r="R39" t="n">
+        <v>6984822</v>
+      </c>
+      <c r="S39" t="n">
+        <v>10</v>
+      </c>
+      <c r="T39" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="U39" t="inlineStr">
+        <is>
+          <t>Bräcke</t>
+        </is>
+      </c>
+      <c r="V39" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="W39" t="inlineStr">
+        <is>
+          <t>Sundsjö</t>
+        </is>
+      </c>
+      <c r="Y39" t="inlineStr">
+        <is>
+          <t>2023-09-21</t>
+        </is>
+      </c>
+      <c r="AA39" t="inlineStr">
+        <is>
+          <t>2023-09-21</t>
+        </is>
+      </c>
+      <c r="AD39" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE39" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG39" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT39" t="inlineStr"/>
+      <c r="AW39" t="inlineStr">
+        <is>
+          <t>Thomas Stålhandske</t>
+        </is>
+      </c>
+      <c r="AX39" t="inlineStr">
+        <is>
+          <t>Thomas Stålhandske</t>
+        </is>
+      </c>
+      <c r="AY39" t="inlineStr">
+        <is>
+          <t>LstZ naturskyddsfunktionens naturvärdesinventering 2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>112343603</v>
+      </c>
+      <c r="B40" t="n">
+        <v>89090</v>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>VU</t>
+        </is>
+      </c>
+      <c r="E40" t="n">
+        <v>5747</v>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>Läderdoftande fingersvamp</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>Ramaria safraniolens</t>
+        </is>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>Christian</t>
+        </is>
+      </c>
+      <c r="I40" t="inlineStr"/>
+      <c r="J40" t="inlineStr"/>
+      <c r="K40" t="inlineStr"/>
+      <c r="N40" t="inlineStr"/>
+      <c r="P40" t="inlineStr">
+        <is>
+          <t>Stamnberget, Jmt</t>
+        </is>
+      </c>
+      <c r="Q40" t="n">
+        <v>503342</v>
+      </c>
+      <c r="R40" t="n">
+        <v>6984691</v>
+      </c>
+      <c r="S40" t="n">
+        <v>10</v>
+      </c>
+      <c r="T40" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="U40" t="inlineStr">
+        <is>
+          <t>Bräcke</t>
+        </is>
+      </c>
+      <c r="V40" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="W40" t="inlineStr">
+        <is>
+          <t>Sundsjö</t>
+        </is>
+      </c>
+      <c r="Y40" t="inlineStr">
+        <is>
+          <t>2023-09-22</t>
+        </is>
+      </c>
+      <c r="AA40" t="inlineStr">
+        <is>
+          <t>2023-09-22</t>
+        </is>
+      </c>
+      <c r="AD40" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE40" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF40" t="inlineStr"/>
+      <c r="AG40" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT40" t="inlineStr"/>
+      <c r="AW40" t="inlineStr">
+        <is>
+          <t>Thomas Stålhandske</t>
+        </is>
+      </c>
+      <c r="AX40" t="inlineStr">
+        <is>
+          <t>Thomas Stålhandske, Erik Lundmark</t>
+        </is>
+      </c>
+      <c r="AY40" t="inlineStr">
+        <is>
+          <t>LstZ naturskyddsfunktionens naturvärdesinventering 2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>112343599</v>
+      </c>
+      <c r="B41" t="n">
+        <v>98961</v>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>LC</t>
+        </is>
+      </c>
+      <c r="E41" t="n">
+        <v>222498</v>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>Blåsippa</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>Hepatica nobilis</t>
+        </is>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>Schreb.</t>
+        </is>
+      </c>
+      <c r="I41" t="inlineStr"/>
+      <c r="P41" t="inlineStr">
+        <is>
+          <t>Stamnberget, Jmt</t>
+        </is>
+      </c>
+      <c r="Q41" t="n">
+        <v>503245</v>
+      </c>
+      <c r="R41" t="n">
+        <v>6984785</v>
+      </c>
+      <c r="S41" t="n">
+        <v>10</v>
+      </c>
+      <c r="T41" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="U41" t="inlineStr">
+        <is>
+          <t>Bräcke</t>
+        </is>
+      </c>
+      <c r="V41" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="W41" t="inlineStr">
+        <is>
+          <t>Sundsjö</t>
+        </is>
+      </c>
+      <c r="Y41" t="inlineStr">
+        <is>
+          <t>2023-09-21</t>
+        </is>
+      </c>
+      <c r="AA41" t="inlineStr">
+        <is>
+          <t>2023-09-21</t>
+        </is>
+      </c>
+      <c r="AD41" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE41" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG41" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT41" t="inlineStr"/>
+      <c r="AW41" t="inlineStr">
+        <is>
+          <t>Thomas Stålhandske</t>
+        </is>
+      </c>
+      <c r="AX41" t="inlineStr">
+        <is>
+          <t>Thomas Stålhandske</t>
+        </is>
+      </c>
+      <c r="AY41" t="inlineStr">
+        <is>
+          <t>LstZ naturskyddsfunktionens naturvärdesinventering 2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>112343648</v>
+      </c>
+      <c r="B42" t="n">
+        <v>89000</v>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>LC</t>
+        </is>
+      </c>
+      <c r="E42" t="n">
+        <v>4189</v>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>Kamjordstjärna</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>Geastrum pectinatum</t>
+        </is>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>Pers.:Pers.</t>
+        </is>
+      </c>
+      <c r="I42" t="inlineStr"/>
+      <c r="P42" t="inlineStr">
+        <is>
+          <t>Stamnberget, Jmt</t>
+        </is>
+      </c>
+      <c r="Q42" t="n">
+        <v>503303</v>
+      </c>
+      <c r="R42" t="n">
+        <v>6984553</v>
+      </c>
+      <c r="S42" t="n">
+        <v>10</v>
+      </c>
+      <c r="T42" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="U42" t="inlineStr">
+        <is>
+          <t>Bräcke</t>
+        </is>
+      </c>
+      <c r="V42" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="W42" t="inlineStr">
+        <is>
+          <t>Sundsjö</t>
+        </is>
+      </c>
+      <c r="Y42" t="inlineStr">
+        <is>
+          <t>2023-09-21</t>
+        </is>
+      </c>
+      <c r="AA42" t="inlineStr">
+        <is>
+          <t>2023-09-21</t>
+        </is>
+      </c>
+      <c r="AD42" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE42" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG42" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT42" t="inlineStr"/>
+      <c r="AW42" t="inlineStr">
+        <is>
+          <t>Thomas Stålhandske</t>
+        </is>
+      </c>
+      <c r="AX42" t="inlineStr">
+        <is>
+          <t>Thomas Stålhandske</t>
+        </is>
+      </c>
+      <c r="AY42" t="inlineStr">
+        <is>
+          <t>LstZ naturskyddsfunktionens naturvärdesinventering 2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>112343667</v>
+      </c>
+      <c r="B43" t="n">
+        <v>99850</v>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>LC</t>
+        </is>
+      </c>
+      <c r="E43" t="n">
+        <v>221235</v>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>Vårärt</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>Lathyrus vernus</t>
+        </is>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>(L.) Bernh.</t>
+        </is>
+      </c>
+      <c r="I43" t="inlineStr"/>
+      <c r="P43" t="inlineStr">
+        <is>
+          <t>Stamnberget, Jmt</t>
+        </is>
+      </c>
+      <c r="Q43" t="n">
+        <v>503186</v>
+      </c>
+      <c r="R43" t="n">
+        <v>6984821</v>
+      </c>
+      <c r="S43" t="n">
+        <v>10</v>
+      </c>
+      <c r="T43" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="U43" t="inlineStr">
+        <is>
+          <t>Bräcke</t>
+        </is>
+      </c>
+      <c r="V43" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="W43" t="inlineStr">
+        <is>
+          <t>Sundsjö</t>
+        </is>
+      </c>
+      <c r="Y43" t="inlineStr">
+        <is>
+          <t>2021-06-15</t>
+        </is>
+      </c>
+      <c r="AA43" t="inlineStr">
+        <is>
+          <t>2021-06-15</t>
+        </is>
+      </c>
+      <c r="AD43" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE43" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG43" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT43" t="inlineStr"/>
+      <c r="AW43" t="inlineStr">
+        <is>
+          <t>Thomas Stålhandske</t>
+        </is>
+      </c>
+      <c r="AX43" t="inlineStr">
+        <is>
+          <t>Thomas Stålhandske, Johan Staaf</t>
+        </is>
+      </c>
+      <c r="AY43" t="inlineStr">
+        <is>
+          <t>LstZ naturskyddsfunktionens naturvärdesinventering 2023</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/artfynd/A 69079-2020.xlsx
+++ b/artfynd/A 69079-2020.xlsx
@@ -4751,10 +4751,10 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>112343627</v>
+        <v>112343603</v>
       </c>
       <c r="B39" t="n">
-        <v>78699</v>
+        <v>89090</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
@@ -4763,38 +4763,41 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E39" t="n">
-        <v>6458</v>
+        <v>5747</v>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Läderdoftande fingersvamp</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Ramaria safraniolens</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>Christian</t>
         </is>
       </c>
       <c r="I39" t="inlineStr"/>
+      <c r="J39" t="inlineStr"/>
+      <c r="K39" t="inlineStr"/>
+      <c r="N39" t="inlineStr"/>
       <c r="P39" t="inlineStr">
         <is>
           <t>Stamnberget, Jmt</t>
         </is>
       </c>
       <c r="Q39" t="n">
-        <v>503086</v>
+        <v>503342</v>
       </c>
       <c r="R39" t="n">
-        <v>6984822</v>
+        <v>6984691</v>
       </c>
       <c r="S39" t="n">
         <v>10</v>
@@ -4821,12 +4824,12 @@
       </c>
       <c r="Y39" t="inlineStr">
         <is>
-          <t>2023-09-21</t>
+          <t>2023-09-22</t>
         </is>
       </c>
       <c r="AA39" t="inlineStr">
         <is>
-          <t>2023-09-21</t>
+          <t>2023-09-22</t>
         </is>
       </c>
       <c r="AD39" t="b">
@@ -4835,6 +4838,7 @@
       <c r="AE39" t="b">
         <v>0</v>
       </c>
+      <c r="AF39" t="inlineStr"/>
       <c r="AG39" t="b">
         <v>0</v>
       </c>
@@ -4846,7 +4850,7 @@
       </c>
       <c r="AX39" t="inlineStr">
         <is>
-          <t>Thomas Stålhandske</t>
+          <t>Thomas Stålhandske, Erik Lundmark</t>
         </is>
       </c>
       <c r="AY39" t="inlineStr">
@@ -4857,10 +4861,10 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>112343603</v>
+        <v>112343627</v>
       </c>
       <c r="B40" t="n">
-        <v>89090</v>
+        <v>78699</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
@@ -4869,41 +4873,38 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E40" t="n">
-        <v>5747</v>
+        <v>6458</v>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Läderdoftande fingersvamp</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>Ramaria safraniolens</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>Christian</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I40" t="inlineStr"/>
-      <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
-      <c r="N40" t="inlineStr"/>
       <c r="P40" t="inlineStr">
         <is>
           <t>Stamnberget, Jmt</t>
         </is>
       </c>
       <c r="Q40" t="n">
-        <v>503342</v>
+        <v>503086</v>
       </c>
       <c r="R40" t="n">
-        <v>6984691</v>
+        <v>6984822</v>
       </c>
       <c r="S40" t="n">
         <v>10</v>
@@ -4930,12 +4931,12 @@
       </c>
       <c r="Y40" t="inlineStr">
         <is>
-          <t>2023-09-22</t>
+          <t>2023-09-21</t>
         </is>
       </c>
       <c r="AA40" t="inlineStr">
         <is>
-          <t>2023-09-22</t>
+          <t>2023-09-21</t>
         </is>
       </c>
       <c r="AD40" t="b">
@@ -4944,7 +4945,6 @@
       <c r="AE40" t="b">
         <v>0</v>
       </c>
-      <c r="AF40" t="inlineStr"/>
       <c r="AG40" t="b">
         <v>0</v>
       </c>
@@ -4956,7 +4956,7 @@
       </c>
       <c r="AX40" t="inlineStr">
         <is>
-          <t>Thomas Stålhandske, Erik Lundmark</t>
+          <t>Thomas Stålhandske</t>
         </is>
       </c>
       <c r="AY40" t="inlineStr">
@@ -5073,10 +5073,10 @@
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>112343648</v>
+        <v>112343667</v>
       </c>
       <c r="B42" t="n">
-        <v>89000</v>
+        <v>99850</v>
       </c>
       <c r="C42" t="inlineStr">
         <is>
@@ -5089,21 +5089,21 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>4189</v>
+        <v>221235</v>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Kamjordstjärna</t>
+          <t>Vårärt</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>Geastrum pectinatum</t>
+          <t>Lathyrus vernus</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>Pers.:Pers.</t>
+          <t>(L.) Bernh.</t>
         </is>
       </c>
       <c r="I42" t="inlineStr"/>
@@ -5113,10 +5113,10 @@
         </is>
       </c>
       <c r="Q42" t="n">
-        <v>503303</v>
+        <v>503186</v>
       </c>
       <c r="R42" t="n">
-        <v>6984553</v>
+        <v>6984821</v>
       </c>
       <c r="S42" t="n">
         <v>10</v>
@@ -5143,12 +5143,12 @@
       </c>
       <c r="Y42" t="inlineStr">
         <is>
-          <t>2023-09-21</t>
+          <t>2021-06-15</t>
         </is>
       </c>
       <c r="AA42" t="inlineStr">
         <is>
-          <t>2023-09-21</t>
+          <t>2021-06-15</t>
         </is>
       </c>
       <c r="AD42" t="b">
@@ -5168,7 +5168,7 @@
       </c>
       <c r="AX42" t="inlineStr">
         <is>
-          <t>Thomas Stålhandske</t>
+          <t>Thomas Stålhandske, Johan Staaf</t>
         </is>
       </c>
       <c r="AY42" t="inlineStr">
@@ -5179,10 +5179,10 @@
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>112343667</v>
+        <v>112343648</v>
       </c>
       <c r="B43" t="n">
-        <v>99850</v>
+        <v>89000</v>
       </c>
       <c r="C43" t="inlineStr">
         <is>
@@ -5195,21 +5195,21 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>221235</v>
+        <v>4189</v>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Vårärt</t>
+          <t>Kamjordstjärna</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>Lathyrus vernus</t>
+          <t>Geastrum pectinatum</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>(L.) Bernh.</t>
+          <t>Pers.:Pers.</t>
         </is>
       </c>
       <c r="I43" t="inlineStr"/>
@@ -5219,10 +5219,10 @@
         </is>
       </c>
       <c r="Q43" t="n">
-        <v>503186</v>
+        <v>503303</v>
       </c>
       <c r="R43" t="n">
-        <v>6984821</v>
+        <v>6984553</v>
       </c>
       <c r="S43" t="n">
         <v>10</v>
@@ -5249,12 +5249,12 @@
       </c>
       <c r="Y43" t="inlineStr">
         <is>
-          <t>2021-06-15</t>
+          <t>2023-09-21</t>
         </is>
       </c>
       <c r="AA43" t="inlineStr">
         <is>
-          <t>2021-06-15</t>
+          <t>2023-09-21</t>
         </is>
       </c>
       <c r="AD43" t="b">
@@ -5274,7 +5274,7 @@
       </c>
       <c r="AX43" t="inlineStr">
         <is>
-          <t>Thomas Stålhandske, Johan Staaf</t>
+          <t>Thomas Stålhandske</t>
         </is>
       </c>
       <c r="AY43" t="inlineStr">

--- a/artfynd/A 69079-2020.xlsx
+++ b/artfynd/A 69079-2020.xlsx
@@ -1563,10 +1563,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>112343605</v>
+        <v>112343636</v>
       </c>
       <c r="B9" t="n">
-        <v>99850</v>
+        <v>97066</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1579,21 +1579,21 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>221235</v>
+        <v>219880</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Vårärt</t>
+          <t>Kransrams</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Lathyrus vernus</t>
+          <t>Polygonatum verticillatum</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>(L.) Bernh.</t>
+          <t>(L.) All.</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
@@ -1603,10 +1603,10 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>503188</v>
+        <v>503359</v>
       </c>
       <c r="R9" t="n">
-        <v>6984817</v>
+        <v>6984797</v>
       </c>
       <c r="S9" t="n">
         <v>10</v>
@@ -1669,10 +1669,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>112343675</v>
+        <v>112343605</v>
       </c>
       <c r="B10" t="n">
-        <v>78228</v>
+        <v>99874</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1681,25 +1681,25 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>6453</v>
+        <v>221235</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Vedskivlav</t>
+          <t>Vårärt</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Hertelidea botryosa</t>
+          <t>Lathyrus vernus</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>(Fr.) Printzen &amp; Kantvilas</t>
+          <t>(L.) Bernh.</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
@@ -1709,10 +1709,10 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>503198</v>
+        <v>503188</v>
       </c>
       <c r="R10" t="n">
-        <v>6984799</v>
+        <v>6984817</v>
       </c>
       <c r="S10" t="n">
         <v>10</v>
@@ -1739,12 +1739,12 @@
       </c>
       <c r="Y10" t="inlineStr">
         <is>
-          <t>2021-06-15</t>
+          <t>2023-09-21</t>
         </is>
       </c>
       <c r="AA10" t="inlineStr">
         <is>
-          <t>2021-06-15</t>
+          <t>2023-09-21</t>
         </is>
       </c>
       <c r="AD10" t="b">
@@ -1764,7 +1764,7 @@
       </c>
       <c r="AX10" t="inlineStr">
         <is>
-          <t>Thomas Stålhandske, Johan Staaf</t>
+          <t>Thomas Stålhandske</t>
         </is>
       </c>
       <c r="AY10" t="inlineStr">
@@ -1775,10 +1775,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>112343658</v>
+        <v>112343625</v>
       </c>
       <c r="B11" t="n">
-        <v>99850</v>
+        <v>96735</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1787,25 +1787,25 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>221235</v>
+        <v>220787</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Vårärt</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Lathyrus vernus</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>(L.) Bernh.</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
@@ -1815,10 +1815,10 @@
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>503443</v>
+        <v>503402</v>
       </c>
       <c r="R11" t="n">
-        <v>6984718</v>
+        <v>6984720</v>
       </c>
       <c r="S11" t="n">
         <v>10</v>
@@ -1845,12 +1845,12 @@
       </c>
       <c r="Y11" t="inlineStr">
         <is>
-          <t>2021-06-15</t>
+          <t>2023-09-21</t>
         </is>
       </c>
       <c r="AA11" t="inlineStr">
         <is>
-          <t>2021-06-15</t>
+          <t>2023-09-21</t>
         </is>
       </c>
       <c r="AD11" t="b">
@@ -1870,7 +1870,7 @@
       </c>
       <c r="AX11" t="inlineStr">
         <is>
-          <t>Thomas Stålhandske, Johan Staaf</t>
+          <t>Thomas Stålhandske</t>
         </is>
       </c>
       <c r="AY11" t="inlineStr">
@@ -1884,7 +1884,7 @@
         <v>112343618</v>
       </c>
       <c r="B12" t="n">
-        <v>99850</v>
+        <v>99874</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -1987,10 +1987,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>112343638</v>
+        <v>112343649</v>
       </c>
       <c r="B13" t="n">
-        <v>99850</v>
+        <v>99874</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -2027,10 +2027,10 @@
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>503363</v>
+        <v>503251</v>
       </c>
       <c r="R13" t="n">
-        <v>6984798</v>
+        <v>6984665</v>
       </c>
       <c r="S13" t="n">
         <v>10</v>
@@ -2093,10 +2093,10 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>112343630</v>
+        <v>112343615</v>
       </c>
       <c r="B14" t="n">
-        <v>78732</v>
+        <v>98980</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -2109,21 +2109,21 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>6463</v>
+        <v>222498</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Bårdlav</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Nephroma parile</t>
+          <t>Hepatica nobilis</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>Schreb.</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
@@ -2133,10 +2133,10 @@
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>503087</v>
+        <v>503361</v>
       </c>
       <c r="R14" t="n">
-        <v>6984818</v>
+        <v>6984622</v>
       </c>
       <c r="S14" t="n">
         <v>10</v>
@@ -2199,10 +2199,10 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>112343669</v>
+        <v>112343606</v>
       </c>
       <c r="B15" t="n">
-        <v>99850</v>
+        <v>99874</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -2239,10 +2239,10 @@
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>503175</v>
+        <v>503317</v>
       </c>
       <c r="R15" t="n">
-        <v>6984834</v>
+        <v>6984760</v>
       </c>
       <c r="S15" t="n">
         <v>10</v>
@@ -2269,12 +2269,12 @@
       </c>
       <c r="Y15" t="inlineStr">
         <is>
-          <t>2021-06-15</t>
+          <t>2023-09-21</t>
         </is>
       </c>
       <c r="AA15" t="inlineStr">
         <is>
-          <t>2021-06-15</t>
+          <t>2023-09-21</t>
         </is>
       </c>
       <c r="AD15" t="b">
@@ -2294,7 +2294,7 @@
       </c>
       <c r="AX15" t="inlineStr">
         <is>
-          <t>Thomas Stålhandske, Johan Staaf</t>
+          <t>Thomas Stålhandske</t>
         </is>
       </c>
       <c r="AY15" t="inlineStr">
@@ -2305,10 +2305,10 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>112343647</v>
+        <v>112343599</v>
       </c>
       <c r="B16" t="n">
-        <v>99850</v>
+        <v>98980</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -2321,21 +2321,21 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>221235</v>
+        <v>222498</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Vårärt</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Lathyrus vernus</t>
+          <t>Hepatica nobilis</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>(L.) Bernh.</t>
+          <t>Schreb.</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
@@ -2345,10 +2345,10 @@
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>503285</v>
+        <v>503245</v>
       </c>
       <c r="R16" t="n">
-        <v>6984742</v>
+        <v>6984785</v>
       </c>
       <c r="S16" t="n">
         <v>10</v>
@@ -2411,10 +2411,10 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>112343625</v>
+        <v>112343635</v>
       </c>
       <c r="B17" t="n">
-        <v>96720</v>
+        <v>99874</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -2423,25 +2423,25 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>220787</v>
+        <v>221235</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Vårärt</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Lathyrus vernus</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(L.) Bernh.</t>
         </is>
       </c>
       <c r="I17" t="inlineStr"/>
@@ -2451,10 +2451,10 @@
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>503402</v>
+        <v>503342</v>
       </c>
       <c r="R17" t="n">
-        <v>6984720</v>
+        <v>6984700</v>
       </c>
       <c r="S17" t="n">
         <v>10</v>
@@ -2517,10 +2517,10 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>112343635</v>
+        <v>112343641</v>
       </c>
       <c r="B18" t="n">
-        <v>99850</v>
+        <v>99874</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -2557,10 +2557,10 @@
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>503342</v>
+        <v>503245</v>
       </c>
       <c r="R18" t="n">
-        <v>6984700</v>
+        <v>6984772</v>
       </c>
       <c r="S18" t="n">
         <v>10</v>
@@ -2623,10 +2623,10 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>112343662</v>
+        <v>112343675</v>
       </c>
       <c r="B19" t="n">
-        <v>98961</v>
+        <v>78242</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -2635,25 +2635,25 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E19" t="n">
-        <v>222498</v>
+        <v>6453</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Vedskivlav</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Hepatica nobilis</t>
+          <t>Hertelidea botryosa</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>Schreb.</t>
+          <t>(Fr.) Printzen &amp; Kantvilas</t>
         </is>
       </c>
       <c r="I19" t="inlineStr"/>
@@ -2663,10 +2663,10 @@
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>503310</v>
+        <v>503198</v>
       </c>
       <c r="R19" t="n">
-        <v>6984720</v>
+        <v>6984799</v>
       </c>
       <c r="S19" t="n">
         <v>10</v>
@@ -2729,10 +2729,10 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>112343631</v>
+        <v>112343600</v>
       </c>
       <c r="B20" t="n">
-        <v>90466</v>
+        <v>98980</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -2745,21 +2745,21 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>4769</v>
+        <v>222498</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Svavelriska</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Lactarius scrobiculatus</t>
+          <t>Hepatica nobilis</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>(Scop.:Fr.) Fr.</t>
+          <t>Schreb.</t>
         </is>
       </c>
       <c r="I20" t="inlineStr"/>
@@ -2769,10 +2769,10 @@
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>503318</v>
+        <v>503363</v>
       </c>
       <c r="R20" t="n">
-        <v>6984760</v>
+        <v>6984798</v>
       </c>
       <c r="S20" t="n">
         <v>10</v>
@@ -2835,10 +2835,10 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>112343646</v>
+        <v>112343632</v>
       </c>
       <c r="B21" t="n">
-        <v>98961</v>
+        <v>78713</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -2847,25 +2847,25 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E21" t="n">
-        <v>222498</v>
+        <v>6458</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Hepatica nobilis</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>Schreb.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I21" t="inlineStr"/>
@@ -2875,10 +2875,10 @@
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>503285</v>
+        <v>503189</v>
       </c>
       <c r="R21" t="n">
-        <v>6984742</v>
+        <v>6984730</v>
       </c>
       <c r="S21" t="n">
         <v>10</v>
@@ -2941,10 +2941,10 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>112343623</v>
+        <v>112343669</v>
       </c>
       <c r="B22" t="n">
-        <v>98961</v>
+        <v>99874</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -2957,21 +2957,21 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>222498</v>
+        <v>221235</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Vårärt</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Hepatica nobilis</t>
+          <t>Lathyrus vernus</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>Schreb.</t>
+          <t>(L.) Bernh.</t>
         </is>
       </c>
       <c r="I22" t="inlineStr"/>
@@ -2981,10 +2981,10 @@
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>503183</v>
+        <v>503175</v>
       </c>
       <c r="R22" t="n">
-        <v>6984817</v>
+        <v>6984834</v>
       </c>
       <c r="S22" t="n">
         <v>10</v>
@@ -3011,12 +3011,12 @@
       </c>
       <c r="Y22" t="inlineStr">
         <is>
-          <t>2023-09-21</t>
+          <t>2021-06-15</t>
         </is>
       </c>
       <c r="AA22" t="inlineStr">
         <is>
-          <t>2023-09-21</t>
+          <t>2021-06-15</t>
         </is>
       </c>
       <c r="AD22" t="b">
@@ -3036,7 +3036,7 @@
       </c>
       <c r="AX22" t="inlineStr">
         <is>
-          <t>Thomas Stålhandske</t>
+          <t>Thomas Stålhandske, Johan Staaf</t>
         </is>
       </c>
       <c r="AY22" t="inlineStr">
@@ -3047,10 +3047,10 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>112343606</v>
+        <v>112343622</v>
       </c>
       <c r="B23" t="n">
-        <v>99850</v>
+        <v>99874</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
@@ -3087,10 +3087,10 @@
         </is>
       </c>
       <c r="Q23" t="n">
-        <v>503317</v>
+        <v>503176</v>
       </c>
       <c r="R23" t="n">
-        <v>6984760</v>
+        <v>6984833</v>
       </c>
       <c r="S23" t="n">
         <v>10</v>
@@ -3153,10 +3153,10 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>112343615</v>
+        <v>112343630</v>
       </c>
       <c r="B24" t="n">
-        <v>98961</v>
+        <v>78746</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
@@ -3169,21 +3169,21 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>222498</v>
+        <v>6463</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Bårdlav</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Hepatica nobilis</t>
+          <t>Nephroma parile</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>Schreb.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I24" t="inlineStr"/>
@@ -3193,10 +3193,10 @@
         </is>
       </c>
       <c r="Q24" t="n">
-        <v>503361</v>
+        <v>503087</v>
       </c>
       <c r="R24" t="n">
-        <v>6984622</v>
+        <v>6984818</v>
       </c>
       <c r="S24" t="n">
         <v>10</v>
@@ -3259,10 +3259,10 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>112343668</v>
+        <v>112343640</v>
       </c>
       <c r="B25" t="n">
-        <v>96740</v>
+        <v>78713</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
@@ -3271,25 +3271,25 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E25" t="n">
-        <v>221952</v>
+        <v>6458</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Spindelblomster</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Neottia cordata</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>(L.) Rich.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I25" t="inlineStr"/>
@@ -3299,10 +3299,10 @@
         </is>
       </c>
       <c r="Q25" t="n">
-        <v>503178</v>
+        <v>503202</v>
       </c>
       <c r="R25" t="n">
-        <v>6984830</v>
+        <v>6984811</v>
       </c>
       <c r="S25" t="n">
         <v>10</v>
@@ -3329,12 +3329,12 @@
       </c>
       <c r="Y25" t="inlineStr">
         <is>
-          <t>2021-06-15</t>
+          <t>2023-09-21</t>
         </is>
       </c>
       <c r="AA25" t="inlineStr">
         <is>
-          <t>2021-06-15</t>
+          <t>2023-09-21</t>
         </is>
       </c>
       <c r="AD25" t="b">
@@ -3354,7 +3354,7 @@
       </c>
       <c r="AX25" t="inlineStr">
         <is>
-          <t>Thomas Stålhandske, Johan Staaf</t>
+          <t>Thomas Stålhandske</t>
         </is>
       </c>
       <c r="AY25" t="inlineStr">
@@ -3365,10 +3365,10 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>112343629</v>
+        <v>112343627</v>
       </c>
       <c r="B26" t="n">
-        <v>56446</v>
+        <v>78713</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
@@ -3381,42 +3381,34 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>100049</v>
+        <v>6458</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Dryocopus martius</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr"/>
-      <c r="M26" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
-      <c r="N26" t="inlineStr"/>
       <c r="P26" t="inlineStr">
         <is>
           <t>Stamnberget, Jmt</t>
         </is>
       </c>
       <c r="Q26" t="n">
-        <v>503132</v>
+        <v>503086</v>
       </c>
       <c r="R26" t="n">
-        <v>6984774</v>
+        <v>6984822</v>
       </c>
       <c r="S26" t="n">
         <v>10</v>
@@ -3479,10 +3471,10 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>112343645</v>
+        <v>112343657</v>
       </c>
       <c r="B27" t="n">
-        <v>98961</v>
+        <v>78713</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
@@ -3491,25 +3483,25 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E27" t="n">
-        <v>222498</v>
+        <v>6458</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Hepatica nobilis</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>Schreb.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I27" t="inlineStr"/>
@@ -3519,10 +3511,10 @@
         </is>
       </c>
       <c r="Q27" t="n">
-        <v>503188</v>
+        <v>503332</v>
       </c>
       <c r="R27" t="n">
-        <v>6984817</v>
+        <v>6984649</v>
       </c>
       <c r="S27" t="n">
         <v>10</v>
@@ -3549,12 +3541,12 @@
       </c>
       <c r="Y27" t="inlineStr">
         <is>
-          <t>2023-09-21</t>
+          <t>2021-06-15</t>
         </is>
       </c>
       <c r="AA27" t="inlineStr">
         <is>
-          <t>2023-09-21</t>
+          <t>2021-06-15</t>
         </is>
       </c>
       <c r="AD27" t="b">
@@ -3574,7 +3566,7 @@
       </c>
       <c r="AX27" t="inlineStr">
         <is>
-          <t>Thomas Stålhandske</t>
+          <t>Thomas Stålhandske, Johan Staaf</t>
         </is>
       </c>
       <c r="AY27" t="inlineStr">
@@ -3585,10 +3577,10 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>112343636</v>
+        <v>112343668</v>
       </c>
       <c r="B28" t="n">
-        <v>97051</v>
+        <v>96755</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
@@ -3601,21 +3593,21 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>219880</v>
+        <v>221952</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Kransrams</t>
+          <t>Spindelblomster</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>Polygonatum verticillatum</t>
+          <t>Neottia cordata</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>(L.) All.</t>
+          <t>(L.) Rich.</t>
         </is>
       </c>
       <c r="I28" t="inlineStr"/>
@@ -3625,10 +3617,10 @@
         </is>
       </c>
       <c r="Q28" t="n">
-        <v>503359</v>
+        <v>503178</v>
       </c>
       <c r="R28" t="n">
-        <v>6984797</v>
+        <v>6984830</v>
       </c>
       <c r="S28" t="n">
         <v>10</v>
@@ -3655,12 +3647,12 @@
       </c>
       <c r="Y28" t="inlineStr">
         <is>
-          <t>2023-09-21</t>
+          <t>2021-06-15</t>
         </is>
       </c>
       <c r="AA28" t="inlineStr">
         <is>
-          <t>2023-09-21</t>
+          <t>2021-06-15</t>
         </is>
       </c>
       <c r="AD28" t="b">
@@ -3680,7 +3672,7 @@
       </c>
       <c r="AX28" t="inlineStr">
         <is>
-          <t>Thomas Stålhandske</t>
+          <t>Thomas Stålhandske, Johan Staaf</t>
         </is>
       </c>
       <c r="AY28" t="inlineStr">
@@ -3691,10 +3683,10 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>112343640</v>
+        <v>112343621</v>
       </c>
       <c r="B29" t="n">
-        <v>78699</v>
+        <v>90480</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
@@ -3703,25 +3695,25 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E29" t="n">
-        <v>6458</v>
+        <v>4769</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Svavelriska</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Lactarius scrobiculatus</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Scop.:Fr.) Fr.</t>
         </is>
       </c>
       <c r="I29" t="inlineStr"/>
@@ -3731,10 +3723,10 @@
         </is>
       </c>
       <c r="Q29" t="n">
-        <v>503202</v>
+        <v>503345</v>
       </c>
       <c r="R29" t="n">
-        <v>6984811</v>
+        <v>6984805</v>
       </c>
       <c r="S29" t="n">
         <v>10</v>
@@ -3797,10 +3789,10 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>112343649</v>
+        <v>112343647</v>
       </c>
       <c r="B30" t="n">
-        <v>99850</v>
+        <v>99874</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
@@ -3837,10 +3829,10 @@
         </is>
       </c>
       <c r="Q30" t="n">
-        <v>503251</v>
+        <v>503285</v>
       </c>
       <c r="R30" t="n">
-        <v>6984665</v>
+        <v>6984742</v>
       </c>
       <c r="S30" t="n">
         <v>10</v>
@@ -3903,10 +3895,10 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>112343621</v>
+        <v>112343629</v>
       </c>
       <c r="B31" t="n">
-        <v>90466</v>
+        <v>56446</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
@@ -3915,38 +3907,46 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E31" t="n">
-        <v>4769</v>
+        <v>100049</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Svavelriska</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>Lactarius scrobiculatus</t>
+          <t>Dryocopus martius</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>(Scop.:Fr.) Fr.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I31" t="inlineStr"/>
+      <c r="K31" t="inlineStr"/>
+      <c r="L31" t="inlineStr"/>
+      <c r="M31" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
+      <c r="N31" t="inlineStr"/>
       <c r="P31" t="inlineStr">
         <is>
           <t>Stamnberget, Jmt</t>
         </is>
       </c>
       <c r="Q31" t="n">
-        <v>503345</v>
+        <v>503132</v>
       </c>
       <c r="R31" t="n">
-        <v>6984805</v>
+        <v>6984774</v>
       </c>
       <c r="S31" t="n">
         <v>10</v>
@@ -4009,10 +4009,10 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>112343657</v>
+        <v>112343646</v>
       </c>
       <c r="B32" t="n">
-        <v>78699</v>
+        <v>98980</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
@@ -4021,25 +4021,25 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E32" t="n">
-        <v>6458</v>
+        <v>222498</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Hepatica nobilis</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>Schreb.</t>
         </is>
       </c>
       <c r="I32" t="inlineStr"/>
@@ -4049,10 +4049,10 @@
         </is>
       </c>
       <c r="Q32" t="n">
-        <v>503332</v>
+        <v>503285</v>
       </c>
       <c r="R32" t="n">
-        <v>6984649</v>
+        <v>6984742</v>
       </c>
       <c r="S32" t="n">
         <v>10</v>
@@ -4079,12 +4079,12 @@
       </c>
       <c r="Y32" t="inlineStr">
         <is>
-          <t>2021-06-15</t>
+          <t>2023-09-21</t>
         </is>
       </c>
       <c r="AA32" t="inlineStr">
         <is>
-          <t>2021-06-15</t>
+          <t>2023-09-21</t>
         </is>
       </c>
       <c r="AD32" t="b">
@@ -4104,7 +4104,7 @@
       </c>
       <c r="AX32" t="inlineStr">
         <is>
-          <t>Thomas Stålhandske, Johan Staaf</t>
+          <t>Thomas Stålhandske</t>
         </is>
       </c>
       <c r="AY32" t="inlineStr">
@@ -4115,10 +4115,10 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>112343632</v>
+        <v>112343662</v>
       </c>
       <c r="B33" t="n">
-        <v>78699</v>
+        <v>98980</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
@@ -4127,25 +4127,25 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E33" t="n">
-        <v>6458</v>
+        <v>222498</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Hepatica nobilis</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>Schreb.</t>
         </is>
       </c>
       <c r="I33" t="inlineStr"/>
@@ -4155,10 +4155,10 @@
         </is>
       </c>
       <c r="Q33" t="n">
-        <v>503189</v>
+        <v>503310</v>
       </c>
       <c r="R33" t="n">
-        <v>6984730</v>
+        <v>6984720</v>
       </c>
       <c r="S33" t="n">
         <v>10</v>
@@ -4185,12 +4185,12 @@
       </c>
       <c r="Y33" t="inlineStr">
         <is>
-          <t>2023-09-21</t>
+          <t>2021-06-15</t>
         </is>
       </c>
       <c r="AA33" t="inlineStr">
         <is>
-          <t>2023-09-21</t>
+          <t>2021-06-15</t>
         </is>
       </c>
       <c r="AD33" t="b">
@@ -4210,7 +4210,7 @@
       </c>
       <c r="AX33" t="inlineStr">
         <is>
-          <t>Thomas Stålhandske</t>
+          <t>Thomas Stålhandske, Johan Staaf</t>
         </is>
       </c>
       <c r="AY33" t="inlineStr">
@@ -4221,10 +4221,10 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>112343641</v>
+        <v>112343648</v>
       </c>
       <c r="B34" t="n">
-        <v>99850</v>
+        <v>89014</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
@@ -4237,21 +4237,21 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>221235</v>
+        <v>4189</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Vårärt</t>
+          <t>Kamjordstjärna</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>Lathyrus vernus</t>
+          <t>Geastrum pectinatum</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>(L.) Bernh.</t>
+          <t>Pers.:Pers.</t>
         </is>
       </c>
       <c r="I34" t="inlineStr"/>
@@ -4261,10 +4261,10 @@
         </is>
       </c>
       <c r="Q34" t="n">
-        <v>503245</v>
+        <v>503303</v>
       </c>
       <c r="R34" t="n">
-        <v>6984772</v>
+        <v>6984553</v>
       </c>
       <c r="S34" t="n">
         <v>10</v>
@@ -4327,10 +4327,10 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>112343659</v>
+        <v>112343623</v>
       </c>
       <c r="B35" t="n">
-        <v>89539</v>
+        <v>98980</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
@@ -4339,25 +4339,25 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E35" t="n">
-        <v>1202</v>
+        <v>222498</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Hepatica nobilis</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>Schreb.</t>
         </is>
       </c>
       <c r="I35" t="inlineStr"/>
@@ -4367,10 +4367,10 @@
         </is>
       </c>
       <c r="Q35" t="n">
-        <v>503414</v>
+        <v>503183</v>
       </c>
       <c r="R35" t="n">
-        <v>6984754</v>
+        <v>6984817</v>
       </c>
       <c r="S35" t="n">
         <v>10</v>
@@ -4397,12 +4397,12 @@
       </c>
       <c r="Y35" t="inlineStr">
         <is>
-          <t>2021-06-15</t>
+          <t>2023-09-21</t>
         </is>
       </c>
       <c r="AA35" t="inlineStr">
         <is>
-          <t>2021-06-15</t>
+          <t>2023-09-21</t>
         </is>
       </c>
       <c r="AD35" t="b">
@@ -4422,7 +4422,7 @@
       </c>
       <c r="AX35" t="inlineStr">
         <is>
-          <t>Thomas Stålhandske, Johan Staaf</t>
+          <t>Thomas Stålhandske</t>
         </is>
       </c>
       <c r="AY35" t="inlineStr">
@@ -4433,10 +4433,10 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>112343634</v>
+        <v>112343645</v>
       </c>
       <c r="B36" t="n">
-        <v>98961</v>
+        <v>98980</v>
       </c>
       <c r="C36" t="inlineStr">
         <is>
@@ -4473,10 +4473,10 @@
         </is>
       </c>
       <c r="Q36" t="n">
-        <v>503363</v>
+        <v>503188</v>
       </c>
       <c r="R36" t="n">
-        <v>6984798</v>
+        <v>6984817</v>
       </c>
       <c r="S36" t="n">
         <v>10</v>
@@ -4539,10 +4539,10 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>112343622</v>
+        <v>112343676</v>
       </c>
       <c r="B37" t="n">
-        <v>99850</v>
+        <v>78713</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
@@ -4551,25 +4551,25 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E37" t="n">
-        <v>221235</v>
+        <v>6458</v>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Vårärt</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>Lathyrus vernus</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>(L.) Bernh.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I37" t="inlineStr"/>
@@ -4579,10 +4579,10 @@
         </is>
       </c>
       <c r="Q37" t="n">
-        <v>503176</v>
+        <v>503220</v>
       </c>
       <c r="R37" t="n">
-        <v>6984833</v>
+        <v>6984721</v>
       </c>
       <c r="S37" t="n">
         <v>10</v>
@@ -4609,12 +4609,12 @@
       </c>
       <c r="Y37" t="inlineStr">
         <is>
-          <t>2023-09-21</t>
+          <t>2021-06-15</t>
         </is>
       </c>
       <c r="AA37" t="inlineStr">
         <is>
-          <t>2023-09-21</t>
+          <t>2021-06-15</t>
         </is>
       </c>
       <c r="AD37" t="b">
@@ -4634,7 +4634,7 @@
       </c>
       <c r="AX37" t="inlineStr">
         <is>
-          <t>Thomas Stålhandske</t>
+          <t>Thomas Stålhandske, Johan Staaf</t>
         </is>
       </c>
       <c r="AY37" t="inlineStr">
@@ -4645,10 +4645,10 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>112343676</v>
+        <v>112343658</v>
       </c>
       <c r="B38" t="n">
-        <v>78699</v>
+        <v>99874</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
@@ -4657,25 +4657,25 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E38" t="n">
-        <v>6458</v>
+        <v>221235</v>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Vårärt</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Lathyrus vernus</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(L.) Bernh.</t>
         </is>
       </c>
       <c r="I38" t="inlineStr"/>
@@ -4685,10 +4685,10 @@
         </is>
       </c>
       <c r="Q38" t="n">
-        <v>503220</v>
+        <v>503443</v>
       </c>
       <c r="R38" t="n">
-        <v>6984721</v>
+        <v>6984718</v>
       </c>
       <c r="S38" t="n">
         <v>10</v>
@@ -4751,10 +4751,10 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>112343603</v>
+        <v>112343667</v>
       </c>
       <c r="B39" t="n">
-        <v>89090</v>
+        <v>99874</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
@@ -4763,41 +4763,38 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E39" t="n">
-        <v>5747</v>
+        <v>221235</v>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Läderdoftande fingersvamp</t>
+          <t>Vårärt</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>Ramaria safraniolens</t>
+          <t>Lathyrus vernus</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>Christian</t>
+          <t>(L.) Bernh.</t>
         </is>
       </c>
       <c r="I39" t="inlineStr"/>
-      <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
-      <c r="N39" t="inlineStr"/>
       <c r="P39" t="inlineStr">
         <is>
           <t>Stamnberget, Jmt</t>
         </is>
       </c>
       <c r="Q39" t="n">
-        <v>503342</v>
+        <v>503186</v>
       </c>
       <c r="R39" t="n">
-        <v>6984691</v>
+        <v>6984821</v>
       </c>
       <c r="S39" t="n">
         <v>10</v>
@@ -4824,12 +4821,12 @@
       </c>
       <c r="Y39" t="inlineStr">
         <is>
-          <t>2023-09-22</t>
+          <t>2021-06-15</t>
         </is>
       </c>
       <c r="AA39" t="inlineStr">
         <is>
-          <t>2023-09-22</t>
+          <t>2021-06-15</t>
         </is>
       </c>
       <c r="AD39" t="b">
@@ -4838,7 +4835,6 @@
       <c r="AE39" t="b">
         <v>0</v>
       </c>
-      <c r="AF39" t="inlineStr"/>
       <c r="AG39" t="b">
         <v>0</v>
       </c>
@@ -4850,7 +4846,7 @@
       </c>
       <c r="AX39" t="inlineStr">
         <is>
-          <t>Thomas Stålhandske, Erik Lundmark</t>
+          <t>Thomas Stålhandske, Johan Staaf</t>
         </is>
       </c>
       <c r="AY39" t="inlineStr">
@@ -4861,10 +4857,10 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>112343627</v>
+        <v>112343638</v>
       </c>
       <c r="B40" t="n">
-        <v>78699</v>
+        <v>99874</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
@@ -4873,25 +4869,25 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E40" t="n">
-        <v>6458</v>
+        <v>221235</v>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Vårärt</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Lathyrus vernus</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(L.) Bernh.</t>
         </is>
       </c>
       <c r="I40" t="inlineStr"/>
@@ -4901,10 +4897,10 @@
         </is>
       </c>
       <c r="Q40" t="n">
-        <v>503086</v>
+        <v>503363</v>
       </c>
       <c r="R40" t="n">
-        <v>6984822</v>
+        <v>6984798</v>
       </c>
       <c r="S40" t="n">
         <v>10</v>
@@ -4967,10 +4963,10 @@
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>112343599</v>
+        <v>112343603</v>
       </c>
       <c r="B41" t="n">
-        <v>98961</v>
+        <v>89104</v>
       </c>
       <c r="C41" t="inlineStr">
         <is>
@@ -4979,38 +4975,41 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E41" t="n">
-        <v>222498</v>
+        <v>5747</v>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Läderdoftande fingersvamp</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>Hepatica nobilis</t>
+          <t>Ramaria safraniolens</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>Schreb.</t>
+          <t>Christian</t>
         </is>
       </c>
       <c r="I41" t="inlineStr"/>
+      <c r="J41" t="inlineStr"/>
+      <c r="K41" t="inlineStr"/>
+      <c r="N41" t="inlineStr"/>
       <c r="P41" t="inlineStr">
         <is>
           <t>Stamnberget, Jmt</t>
         </is>
       </c>
       <c r="Q41" t="n">
-        <v>503245</v>
+        <v>503342</v>
       </c>
       <c r="R41" t="n">
-        <v>6984785</v>
+        <v>6984691</v>
       </c>
       <c r="S41" t="n">
         <v>10</v>
@@ -5037,12 +5036,12 @@
       </c>
       <c r="Y41" t="inlineStr">
         <is>
-          <t>2023-09-21</t>
+          <t>2023-09-22</t>
         </is>
       </c>
       <c r="AA41" t="inlineStr">
         <is>
-          <t>2023-09-21</t>
+          <t>2023-09-22</t>
         </is>
       </c>
       <c r="AD41" t="b">
@@ -5051,6 +5050,7 @@
       <c r="AE41" t="b">
         <v>0</v>
       </c>
+      <c r="AF41" t="inlineStr"/>
       <c r="AG41" t="b">
         <v>0</v>
       </c>
@@ -5062,7 +5062,7 @@
       </c>
       <c r="AX41" t="inlineStr">
         <is>
-          <t>Thomas Stålhandske</t>
+          <t>Thomas Stålhandske, Erik Lundmark</t>
         </is>
       </c>
       <c r="AY41" t="inlineStr">
@@ -5073,10 +5073,10 @@
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>112343667</v>
+        <v>112343631</v>
       </c>
       <c r="B42" t="n">
-        <v>99850</v>
+        <v>90480</v>
       </c>
       <c r="C42" t="inlineStr">
         <is>
@@ -5089,21 +5089,21 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>221235</v>
+        <v>4769</v>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Vårärt</t>
+          <t>Svavelriska</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>Lathyrus vernus</t>
+          <t>Lactarius scrobiculatus</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>(L.) Bernh.</t>
+          <t>(Scop.:Fr.) Fr.</t>
         </is>
       </c>
       <c r="I42" t="inlineStr"/>
@@ -5113,10 +5113,10 @@
         </is>
       </c>
       <c r="Q42" t="n">
-        <v>503186</v>
+        <v>503318</v>
       </c>
       <c r="R42" t="n">
-        <v>6984821</v>
+        <v>6984760</v>
       </c>
       <c r="S42" t="n">
         <v>10</v>
@@ -5143,12 +5143,12 @@
       </c>
       <c r="Y42" t="inlineStr">
         <is>
-          <t>2021-06-15</t>
+          <t>2023-09-21</t>
         </is>
       </c>
       <c r="AA42" t="inlineStr">
         <is>
-          <t>2021-06-15</t>
+          <t>2023-09-21</t>
         </is>
       </c>
       <c r="AD42" t="b">
@@ -5168,7 +5168,7 @@
       </c>
       <c r="AX42" t="inlineStr">
         <is>
-          <t>Thomas Stålhandske, Johan Staaf</t>
+          <t>Thomas Stålhandske</t>
         </is>
       </c>
       <c r="AY42" t="inlineStr">
@@ -5179,10 +5179,10 @@
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>112343648</v>
+        <v>112343659</v>
       </c>
       <c r="B43" t="n">
-        <v>89000</v>
+        <v>89553</v>
       </c>
       <c r="C43" t="inlineStr">
         <is>
@@ -5191,25 +5191,25 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E43" t="n">
-        <v>4189</v>
+        <v>1202</v>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Kamjordstjärna</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>Geastrum pectinatum</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>Pers.:Pers.</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I43" t="inlineStr"/>
@@ -5219,10 +5219,10 @@
         </is>
       </c>
       <c r="Q43" t="n">
-        <v>503303</v>
+        <v>503414</v>
       </c>
       <c r="R43" t="n">
-        <v>6984553</v>
+        <v>6984754</v>
       </c>
       <c r="S43" t="n">
         <v>10</v>
@@ -5249,12 +5249,12 @@
       </c>
       <c r="Y43" t="inlineStr">
         <is>
-          <t>2023-09-21</t>
+          <t>2021-06-15</t>
         </is>
       </c>
       <c r="AA43" t="inlineStr">
         <is>
-          <t>2023-09-21</t>
+          <t>2021-06-15</t>
         </is>
       </c>
       <c r="AD43" t="b">
@@ -5274,7 +5274,7 @@
       </c>
       <c r="AX43" t="inlineStr">
         <is>
-          <t>Thomas Stålhandske</t>
+          <t>Thomas Stålhandske, Johan Staaf</t>
         </is>
       </c>
       <c r="AY43" t="inlineStr">

--- a/artfynd/A 69079-2020.xlsx
+++ b/artfynd/A 69079-2020.xlsx
@@ -1563,10 +1563,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>112343636</v>
+        <v>112343631</v>
       </c>
       <c r="B9" t="n">
-        <v>97066</v>
+        <v>90480</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1579,21 +1579,21 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>219880</v>
+        <v>4769</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Kransrams</t>
+          <t>Svavelriska</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Polygonatum verticillatum</t>
+          <t>Lactarius scrobiculatus</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>(L.) All.</t>
+          <t>(Scop.:Fr.) Fr.</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
@@ -1603,10 +1603,10 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>503359</v>
+        <v>503318</v>
       </c>
       <c r="R9" t="n">
-        <v>6984797</v>
+        <v>6984760</v>
       </c>
       <c r="S9" t="n">
         <v>10</v>
@@ -1669,7 +1669,7 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>112343605</v>
+        <v>112343638</v>
       </c>
       <c r="B10" t="n">
         <v>99874</v>
@@ -1709,10 +1709,10 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>503188</v>
+        <v>503363</v>
       </c>
       <c r="R10" t="n">
-        <v>6984817</v>
+        <v>6984798</v>
       </c>
       <c r="S10" t="n">
         <v>10</v>
@@ -1775,10 +1775,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>112343625</v>
+        <v>112343676</v>
       </c>
       <c r="B11" t="n">
-        <v>96735</v>
+        <v>78713</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1787,25 +1787,25 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>220787</v>
+        <v>6458</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
@@ -1815,10 +1815,10 @@
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>503402</v>
+        <v>503220</v>
       </c>
       <c r="R11" t="n">
-        <v>6984720</v>
+        <v>6984721</v>
       </c>
       <c r="S11" t="n">
         <v>10</v>
@@ -1845,12 +1845,12 @@
       </c>
       <c r="Y11" t="inlineStr">
         <is>
-          <t>2023-09-21</t>
+          <t>2021-06-15</t>
         </is>
       </c>
       <c r="AA11" t="inlineStr">
         <is>
-          <t>2023-09-21</t>
+          <t>2021-06-15</t>
         </is>
       </c>
       <c r="AD11" t="b">
@@ -1870,7 +1870,7 @@
       </c>
       <c r="AX11" t="inlineStr">
         <is>
-          <t>Thomas Stålhandske</t>
+          <t>Thomas Stålhandske, Johan Staaf</t>
         </is>
       </c>
       <c r="AY11" t="inlineStr">
@@ -1987,10 +1987,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>112343649</v>
+        <v>112343627</v>
       </c>
       <c r="B13" t="n">
-        <v>99874</v>
+        <v>78713</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -1999,25 +1999,25 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>221235</v>
+        <v>6458</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Vårärt</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Lathyrus vernus</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>(L.) Bernh.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
@@ -2027,10 +2027,10 @@
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>503251</v>
+        <v>503086</v>
       </c>
       <c r="R13" t="n">
-        <v>6984665</v>
+        <v>6984822</v>
       </c>
       <c r="S13" t="n">
         <v>10</v>
@@ -2093,10 +2093,10 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>112343615</v>
+        <v>112343605</v>
       </c>
       <c r="B14" t="n">
-        <v>98980</v>
+        <v>99874</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -2109,21 +2109,21 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>222498</v>
+        <v>221235</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Vårärt</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Hepatica nobilis</t>
+          <t>Lathyrus vernus</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>Schreb.</t>
+          <t>(L.) Bernh.</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
@@ -2133,10 +2133,10 @@
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>503361</v>
+        <v>503188</v>
       </c>
       <c r="R14" t="n">
-        <v>6984622</v>
+        <v>6984817</v>
       </c>
       <c r="S14" t="n">
         <v>10</v>
@@ -2199,10 +2199,10 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>112343606</v>
+        <v>112343602</v>
       </c>
       <c r="B15" t="n">
-        <v>99874</v>
+        <v>98980</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -2215,21 +2215,21 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>221235</v>
+        <v>222498</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Vårärt</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Lathyrus vernus</t>
+          <t>Hepatica nobilis</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>(L.) Bernh.</t>
+          <t>Schreb.</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
@@ -2239,10 +2239,10 @@
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>503317</v>
+        <v>503363</v>
       </c>
       <c r="R15" t="n">
-        <v>6984760</v>
+        <v>6984798</v>
       </c>
       <c r="S15" t="n">
         <v>10</v>
@@ -2305,10 +2305,10 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>112343599</v>
+        <v>112343657</v>
       </c>
       <c r="B16" t="n">
-        <v>98980</v>
+        <v>78713</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -2317,25 +2317,25 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>222498</v>
+        <v>6458</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Hepatica nobilis</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>Schreb.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
@@ -2345,10 +2345,10 @@
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>503245</v>
+        <v>503332</v>
       </c>
       <c r="R16" t="n">
-        <v>6984785</v>
+        <v>6984649</v>
       </c>
       <c r="S16" t="n">
         <v>10</v>
@@ -2375,12 +2375,12 @@
       </c>
       <c r="Y16" t="inlineStr">
         <is>
-          <t>2023-09-21</t>
+          <t>2021-06-15</t>
         </is>
       </c>
       <c r="AA16" t="inlineStr">
         <is>
-          <t>2023-09-21</t>
+          <t>2021-06-15</t>
         </is>
       </c>
       <c r="AD16" t="b">
@@ -2400,7 +2400,7 @@
       </c>
       <c r="AX16" t="inlineStr">
         <is>
-          <t>Thomas Stålhandske</t>
+          <t>Thomas Stålhandske, Johan Staaf</t>
         </is>
       </c>
       <c r="AY16" t="inlineStr">
@@ -2411,10 +2411,10 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>112343635</v>
+        <v>112343645</v>
       </c>
       <c r="B17" t="n">
-        <v>99874</v>
+        <v>98980</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -2427,21 +2427,21 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>221235</v>
+        <v>222498</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Vårärt</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Lathyrus vernus</t>
+          <t>Hepatica nobilis</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>(L.) Bernh.</t>
+          <t>Schreb.</t>
         </is>
       </c>
       <c r="I17" t="inlineStr"/>
@@ -2451,10 +2451,10 @@
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>503342</v>
+        <v>503188</v>
       </c>
       <c r="R17" t="n">
-        <v>6984700</v>
+        <v>6984817</v>
       </c>
       <c r="S17" t="n">
         <v>10</v>
@@ -2517,7 +2517,7 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>112343641</v>
+        <v>112343647</v>
       </c>
       <c r="B18" t="n">
         <v>99874</v>
@@ -2557,10 +2557,10 @@
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>503245</v>
+        <v>503285</v>
       </c>
       <c r="R18" t="n">
-        <v>6984772</v>
+        <v>6984742</v>
       </c>
       <c r="S18" t="n">
         <v>10</v>
@@ -2623,10 +2623,10 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>112343675</v>
+        <v>112343668</v>
       </c>
       <c r="B19" t="n">
-        <v>78242</v>
+        <v>96755</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -2635,25 +2635,25 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E19" t="n">
-        <v>6453</v>
+        <v>221952</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Vedskivlav</t>
+          <t>Spindelblomster</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Hertelidea botryosa</t>
+          <t>Neottia cordata</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>(Fr.) Printzen &amp; Kantvilas</t>
+          <t>(L.) Rich.</t>
         </is>
       </c>
       <c r="I19" t="inlineStr"/>
@@ -2663,10 +2663,10 @@
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>503198</v>
+        <v>503178</v>
       </c>
       <c r="R19" t="n">
-        <v>6984799</v>
+        <v>6984830</v>
       </c>
       <c r="S19" t="n">
         <v>10</v>
@@ -2729,10 +2729,10 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>112343600</v>
+        <v>112343621</v>
       </c>
       <c r="B20" t="n">
-        <v>98980</v>
+        <v>90480</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -2745,21 +2745,21 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>222498</v>
+        <v>4769</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Svavelriska</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Hepatica nobilis</t>
+          <t>Lactarius scrobiculatus</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>Schreb.</t>
+          <t>(Scop.:Fr.) Fr.</t>
         </is>
       </c>
       <c r="I20" t="inlineStr"/>
@@ -2769,10 +2769,10 @@
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>503363</v>
+        <v>503345</v>
       </c>
       <c r="R20" t="n">
-        <v>6984798</v>
+        <v>6984805</v>
       </c>
       <c r="S20" t="n">
         <v>10</v>
@@ -2835,10 +2835,10 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>112343632</v>
+        <v>112343615</v>
       </c>
       <c r="B21" t="n">
-        <v>78713</v>
+        <v>98980</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -2847,25 +2847,25 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E21" t="n">
-        <v>6458</v>
+        <v>222498</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Hepatica nobilis</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>Schreb.</t>
         </is>
       </c>
       <c r="I21" t="inlineStr"/>
@@ -2875,10 +2875,10 @@
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>503189</v>
+        <v>503361</v>
       </c>
       <c r="R21" t="n">
-        <v>6984730</v>
+        <v>6984622</v>
       </c>
       <c r="S21" t="n">
         <v>10</v>
@@ -2941,7 +2941,7 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>112343669</v>
+        <v>112343641</v>
       </c>
       <c r="B22" t="n">
         <v>99874</v>
@@ -2981,10 +2981,10 @@
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>503175</v>
+        <v>503245</v>
       </c>
       <c r="R22" t="n">
-        <v>6984834</v>
+        <v>6984772</v>
       </c>
       <c r="S22" t="n">
         <v>10</v>
@@ -3011,12 +3011,12 @@
       </c>
       <c r="Y22" t="inlineStr">
         <is>
-          <t>2021-06-15</t>
+          <t>2023-09-21</t>
         </is>
       </c>
       <c r="AA22" t="inlineStr">
         <is>
-          <t>2021-06-15</t>
+          <t>2023-09-21</t>
         </is>
       </c>
       <c r="AD22" t="b">
@@ -3036,7 +3036,7 @@
       </c>
       <c r="AX22" t="inlineStr">
         <is>
-          <t>Thomas Stålhandske, Johan Staaf</t>
+          <t>Thomas Stålhandske</t>
         </is>
       </c>
       <c r="AY22" t="inlineStr">
@@ -3047,7 +3047,7 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>112343622</v>
+        <v>112343658</v>
       </c>
       <c r="B23" t="n">
         <v>99874</v>
@@ -3087,10 +3087,10 @@
         </is>
       </c>
       <c r="Q23" t="n">
-        <v>503176</v>
+        <v>503443</v>
       </c>
       <c r="R23" t="n">
-        <v>6984833</v>
+        <v>6984718</v>
       </c>
       <c r="S23" t="n">
         <v>10</v>
@@ -3117,12 +3117,12 @@
       </c>
       <c r="Y23" t="inlineStr">
         <is>
-          <t>2023-09-21</t>
+          <t>2021-06-15</t>
         </is>
       </c>
       <c r="AA23" t="inlineStr">
         <is>
-          <t>2023-09-21</t>
+          <t>2021-06-15</t>
         </is>
       </c>
       <c r="AD23" t="b">
@@ -3142,7 +3142,7 @@
       </c>
       <c r="AX23" t="inlineStr">
         <is>
-          <t>Thomas Stålhandske</t>
+          <t>Thomas Stålhandske, Johan Staaf</t>
         </is>
       </c>
       <c r="AY23" t="inlineStr">
@@ -3153,10 +3153,10 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>112343630</v>
+        <v>112343632</v>
       </c>
       <c r="B24" t="n">
-        <v>78746</v>
+        <v>78713</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
@@ -3165,25 +3165,25 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E24" t="n">
-        <v>6463</v>
+        <v>6458</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Bårdlav</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Nephroma parile</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I24" t="inlineStr"/>
@@ -3193,10 +3193,10 @@
         </is>
       </c>
       <c r="Q24" t="n">
-        <v>503087</v>
+        <v>503189</v>
       </c>
       <c r="R24" t="n">
-        <v>6984818</v>
+        <v>6984730</v>
       </c>
       <c r="S24" t="n">
         <v>10</v>
@@ -3259,10 +3259,10 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>112343640</v>
+        <v>112343636</v>
       </c>
       <c r="B25" t="n">
-        <v>78713</v>
+        <v>97066</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
@@ -3271,25 +3271,25 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E25" t="n">
-        <v>6458</v>
+        <v>219880</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Kransrams</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Polygonatum verticillatum</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(L.) All.</t>
         </is>
       </c>
       <c r="I25" t="inlineStr"/>
@@ -3299,10 +3299,10 @@
         </is>
       </c>
       <c r="Q25" t="n">
-        <v>503202</v>
+        <v>503359</v>
       </c>
       <c r="R25" t="n">
-        <v>6984811</v>
+        <v>6984797</v>
       </c>
       <c r="S25" t="n">
         <v>10</v>
@@ -3365,10 +3365,10 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>112343627</v>
+        <v>112343599</v>
       </c>
       <c r="B26" t="n">
-        <v>78713</v>
+        <v>98980</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
@@ -3377,25 +3377,25 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E26" t="n">
-        <v>6458</v>
+        <v>222498</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Hepatica nobilis</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>Schreb.</t>
         </is>
       </c>
       <c r="I26" t="inlineStr"/>
@@ -3405,10 +3405,10 @@
         </is>
       </c>
       <c r="Q26" t="n">
-        <v>503086</v>
+        <v>503245</v>
       </c>
       <c r="R26" t="n">
-        <v>6984822</v>
+        <v>6984785</v>
       </c>
       <c r="S26" t="n">
         <v>10</v>
@@ -3471,10 +3471,10 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>112343657</v>
+        <v>112343667</v>
       </c>
       <c r="B27" t="n">
-        <v>78713</v>
+        <v>99874</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
@@ -3483,25 +3483,25 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E27" t="n">
-        <v>6458</v>
+        <v>221235</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Vårärt</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Lathyrus vernus</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(L.) Bernh.</t>
         </is>
       </c>
       <c r="I27" t="inlineStr"/>
@@ -3511,10 +3511,10 @@
         </is>
       </c>
       <c r="Q27" t="n">
-        <v>503332</v>
+        <v>503186</v>
       </c>
       <c r="R27" t="n">
-        <v>6984649</v>
+        <v>6984821</v>
       </c>
       <c r="S27" t="n">
         <v>10</v>
@@ -3577,10 +3577,10 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>112343668</v>
+        <v>112343623</v>
       </c>
       <c r="B28" t="n">
-        <v>96755</v>
+        <v>98980</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
@@ -3593,21 +3593,21 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>221952</v>
+        <v>222498</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Spindelblomster</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>Neottia cordata</t>
+          <t>Hepatica nobilis</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>(L.) Rich.</t>
+          <t>Schreb.</t>
         </is>
       </c>
       <c r="I28" t="inlineStr"/>
@@ -3617,10 +3617,10 @@
         </is>
       </c>
       <c r="Q28" t="n">
-        <v>503178</v>
+        <v>503183</v>
       </c>
       <c r="R28" t="n">
-        <v>6984830</v>
+        <v>6984817</v>
       </c>
       <c r="S28" t="n">
         <v>10</v>
@@ -3647,12 +3647,12 @@
       </c>
       <c r="Y28" t="inlineStr">
         <is>
-          <t>2021-06-15</t>
+          <t>2023-09-21</t>
         </is>
       </c>
       <c r="AA28" t="inlineStr">
         <is>
-          <t>2021-06-15</t>
+          <t>2023-09-21</t>
         </is>
       </c>
       <c r="AD28" t="b">
@@ -3672,7 +3672,7 @@
       </c>
       <c r="AX28" t="inlineStr">
         <is>
-          <t>Thomas Stålhandske, Johan Staaf</t>
+          <t>Thomas Stålhandske</t>
         </is>
       </c>
       <c r="AY28" t="inlineStr">
@@ -3683,10 +3683,10 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>112343621</v>
+        <v>112343648</v>
       </c>
       <c r="B29" t="n">
-        <v>90480</v>
+        <v>89014</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
@@ -3699,21 +3699,21 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>4769</v>
+        <v>4189</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Svavelriska</t>
+          <t>Kamjordstjärna</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>Lactarius scrobiculatus</t>
+          <t>Geastrum pectinatum</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>(Scop.:Fr.) Fr.</t>
+          <t>Pers.:Pers.</t>
         </is>
       </c>
       <c r="I29" t="inlineStr"/>
@@ -3723,10 +3723,10 @@
         </is>
       </c>
       <c r="Q29" t="n">
-        <v>503345</v>
+        <v>503303</v>
       </c>
       <c r="R29" t="n">
-        <v>6984805</v>
+        <v>6984553</v>
       </c>
       <c r="S29" t="n">
         <v>10</v>
@@ -3789,10 +3789,10 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>112343647</v>
+        <v>112343675</v>
       </c>
       <c r="B30" t="n">
-        <v>99874</v>
+        <v>78242</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
@@ -3801,25 +3801,25 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E30" t="n">
-        <v>221235</v>
+        <v>6453</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Vårärt</t>
+          <t>Vedskivlav</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>Lathyrus vernus</t>
+          <t>Hertelidea botryosa</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>(L.) Bernh.</t>
+          <t>(Fr.) Printzen &amp; Kantvilas</t>
         </is>
       </c>
       <c r="I30" t="inlineStr"/>
@@ -3829,10 +3829,10 @@
         </is>
       </c>
       <c r="Q30" t="n">
-        <v>503285</v>
+        <v>503198</v>
       </c>
       <c r="R30" t="n">
-        <v>6984742</v>
+        <v>6984799</v>
       </c>
       <c r="S30" t="n">
         <v>10</v>
@@ -3859,12 +3859,12 @@
       </c>
       <c r="Y30" t="inlineStr">
         <is>
-          <t>2023-09-21</t>
+          <t>2021-06-15</t>
         </is>
       </c>
       <c r="AA30" t="inlineStr">
         <is>
-          <t>2023-09-21</t>
+          <t>2021-06-15</t>
         </is>
       </c>
       <c r="AD30" t="b">
@@ -3884,7 +3884,7 @@
       </c>
       <c r="AX30" t="inlineStr">
         <is>
-          <t>Thomas Stålhandske</t>
+          <t>Thomas Stålhandske, Johan Staaf</t>
         </is>
       </c>
       <c r="AY30" t="inlineStr">
@@ -3895,10 +3895,10 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>112343629</v>
+        <v>112343625</v>
       </c>
       <c r="B31" t="n">
-        <v>56446</v>
+        <v>96735</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
@@ -3907,46 +3907,38 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E31" t="n">
-        <v>100049</v>
+        <v>220787</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>Dryocopus martius</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr"/>
-      <c r="M31" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
-      <c r="N31" t="inlineStr"/>
       <c r="P31" t="inlineStr">
         <is>
           <t>Stamnberget, Jmt</t>
         </is>
       </c>
       <c r="Q31" t="n">
-        <v>503132</v>
+        <v>503402</v>
       </c>
       <c r="R31" t="n">
-        <v>6984774</v>
+        <v>6984720</v>
       </c>
       <c r="S31" t="n">
         <v>10</v>
@@ -4009,10 +4001,10 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>112343646</v>
+        <v>112343649</v>
       </c>
       <c r="B32" t="n">
-        <v>98980</v>
+        <v>99874</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
@@ -4025,21 +4017,21 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>222498</v>
+        <v>221235</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Vårärt</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>Hepatica nobilis</t>
+          <t>Lathyrus vernus</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>Schreb.</t>
+          <t>(L.) Bernh.</t>
         </is>
       </c>
       <c r="I32" t="inlineStr"/>
@@ -4049,10 +4041,10 @@
         </is>
       </c>
       <c r="Q32" t="n">
-        <v>503285</v>
+        <v>503251</v>
       </c>
       <c r="R32" t="n">
-        <v>6984742</v>
+        <v>6984665</v>
       </c>
       <c r="S32" t="n">
         <v>10</v>
@@ -4115,10 +4107,10 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>112343662</v>
+        <v>112343622</v>
       </c>
       <c r="B33" t="n">
-        <v>98980</v>
+        <v>99874</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
@@ -4131,21 +4123,21 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>222498</v>
+        <v>221235</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Vårärt</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>Hepatica nobilis</t>
+          <t>Lathyrus vernus</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>Schreb.</t>
+          <t>(L.) Bernh.</t>
         </is>
       </c>
       <c r="I33" t="inlineStr"/>
@@ -4155,10 +4147,10 @@
         </is>
       </c>
       <c r="Q33" t="n">
-        <v>503310</v>
+        <v>503176</v>
       </c>
       <c r="R33" t="n">
-        <v>6984720</v>
+        <v>6984833</v>
       </c>
       <c r="S33" t="n">
         <v>10</v>
@@ -4185,12 +4177,12 @@
       </c>
       <c r="Y33" t="inlineStr">
         <is>
-          <t>2021-06-15</t>
+          <t>2023-09-21</t>
         </is>
       </c>
       <c r="AA33" t="inlineStr">
         <is>
-          <t>2021-06-15</t>
+          <t>2023-09-21</t>
         </is>
       </c>
       <c r="AD33" t="b">
@@ -4210,7 +4202,7 @@
       </c>
       <c r="AX33" t="inlineStr">
         <is>
-          <t>Thomas Stålhandske, Johan Staaf</t>
+          <t>Thomas Stålhandske</t>
         </is>
       </c>
       <c r="AY33" t="inlineStr">
@@ -4221,10 +4213,10 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>112343648</v>
+        <v>112343629</v>
       </c>
       <c r="B34" t="n">
-        <v>89014</v>
+        <v>56446</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
@@ -4233,38 +4225,46 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E34" t="n">
-        <v>4189</v>
+        <v>100049</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Kamjordstjärna</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>Geastrum pectinatum</t>
+          <t>Dryocopus martius</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>Pers.:Pers.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I34" t="inlineStr"/>
+      <c r="K34" t="inlineStr"/>
+      <c r="L34" t="inlineStr"/>
+      <c r="M34" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
+      <c r="N34" t="inlineStr"/>
       <c r="P34" t="inlineStr">
         <is>
           <t>Stamnberget, Jmt</t>
         </is>
       </c>
       <c r="Q34" t="n">
-        <v>503303</v>
+        <v>503132</v>
       </c>
       <c r="R34" t="n">
-        <v>6984553</v>
+        <v>6984774</v>
       </c>
       <c r="S34" t="n">
         <v>10</v>
@@ -4327,10 +4327,10 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>112343623</v>
+        <v>112343640</v>
       </c>
       <c r="B35" t="n">
-        <v>98980</v>
+        <v>78713</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
@@ -4339,25 +4339,25 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E35" t="n">
-        <v>222498</v>
+        <v>6458</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>Hepatica nobilis</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>Schreb.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I35" t="inlineStr"/>
@@ -4367,10 +4367,10 @@
         </is>
       </c>
       <c r="Q35" t="n">
-        <v>503183</v>
+        <v>503202</v>
       </c>
       <c r="R35" t="n">
-        <v>6984817</v>
+        <v>6984811</v>
       </c>
       <c r="S35" t="n">
         <v>10</v>
@@ -4433,10 +4433,10 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>112343645</v>
+        <v>112343669</v>
       </c>
       <c r="B36" t="n">
-        <v>98980</v>
+        <v>99874</v>
       </c>
       <c r="C36" t="inlineStr">
         <is>
@@ -4449,21 +4449,21 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>222498</v>
+        <v>221235</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Vårärt</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>Hepatica nobilis</t>
+          <t>Lathyrus vernus</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>Schreb.</t>
+          <t>(L.) Bernh.</t>
         </is>
       </c>
       <c r="I36" t="inlineStr"/>
@@ -4473,10 +4473,10 @@
         </is>
       </c>
       <c r="Q36" t="n">
-        <v>503188</v>
+        <v>503175</v>
       </c>
       <c r="R36" t="n">
-        <v>6984817</v>
+        <v>6984834</v>
       </c>
       <c r="S36" t="n">
         <v>10</v>
@@ -4503,12 +4503,12 @@
       </c>
       <c r="Y36" t="inlineStr">
         <is>
-          <t>2023-09-21</t>
+          <t>2021-06-15</t>
         </is>
       </c>
       <c r="AA36" t="inlineStr">
         <is>
-          <t>2023-09-21</t>
+          <t>2021-06-15</t>
         </is>
       </c>
       <c r="AD36" t="b">
@@ -4528,7 +4528,7 @@
       </c>
       <c r="AX36" t="inlineStr">
         <is>
-          <t>Thomas Stålhandske</t>
+          <t>Thomas Stålhandske, Johan Staaf</t>
         </is>
       </c>
       <c r="AY36" t="inlineStr">
@@ -4539,10 +4539,10 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>112343676</v>
+        <v>112343646</v>
       </c>
       <c r="B37" t="n">
-        <v>78713</v>
+        <v>98980</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
@@ -4551,25 +4551,25 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E37" t="n">
-        <v>6458</v>
+        <v>222498</v>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Hepatica nobilis</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>Schreb.</t>
         </is>
       </c>
       <c r="I37" t="inlineStr"/>
@@ -4579,10 +4579,10 @@
         </is>
       </c>
       <c r="Q37" t="n">
-        <v>503220</v>
+        <v>503285</v>
       </c>
       <c r="R37" t="n">
-        <v>6984721</v>
+        <v>6984742</v>
       </c>
       <c r="S37" t="n">
         <v>10</v>
@@ -4609,12 +4609,12 @@
       </c>
       <c r="Y37" t="inlineStr">
         <is>
-          <t>2021-06-15</t>
+          <t>2023-09-21</t>
         </is>
       </c>
       <c r="AA37" t="inlineStr">
         <is>
-          <t>2021-06-15</t>
+          <t>2023-09-21</t>
         </is>
       </c>
       <c r="AD37" t="b">
@@ -4634,7 +4634,7 @@
       </c>
       <c r="AX37" t="inlineStr">
         <is>
-          <t>Thomas Stålhandske, Johan Staaf</t>
+          <t>Thomas Stålhandske</t>
         </is>
       </c>
       <c r="AY37" t="inlineStr">
@@ -4645,10 +4645,10 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>112343658</v>
+        <v>112343662</v>
       </c>
       <c r="B38" t="n">
-        <v>99874</v>
+        <v>98980</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
@@ -4661,21 +4661,21 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>221235</v>
+        <v>222498</v>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Vårärt</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>Lathyrus vernus</t>
+          <t>Hepatica nobilis</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>(L.) Bernh.</t>
+          <t>Schreb.</t>
         </is>
       </c>
       <c r="I38" t="inlineStr"/>
@@ -4685,10 +4685,10 @@
         </is>
       </c>
       <c r="Q38" t="n">
-        <v>503443</v>
+        <v>503310</v>
       </c>
       <c r="R38" t="n">
-        <v>6984718</v>
+        <v>6984720</v>
       </c>
       <c r="S38" t="n">
         <v>10</v>
@@ -4751,10 +4751,10 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>112343667</v>
+        <v>112343603</v>
       </c>
       <c r="B39" t="n">
-        <v>99874</v>
+        <v>89104</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
@@ -4763,38 +4763,41 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E39" t="n">
-        <v>221235</v>
+        <v>5747</v>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Vårärt</t>
+          <t>Läderdoftande fingersvamp</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>Lathyrus vernus</t>
+          <t>Ramaria safraniolens</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>(L.) Bernh.</t>
+          <t>Christian</t>
         </is>
       </c>
       <c r="I39" t="inlineStr"/>
+      <c r="J39" t="inlineStr"/>
+      <c r="K39" t="inlineStr"/>
+      <c r="N39" t="inlineStr"/>
       <c r="P39" t="inlineStr">
         <is>
           <t>Stamnberget, Jmt</t>
         </is>
       </c>
       <c r="Q39" t="n">
-        <v>503186</v>
+        <v>503342</v>
       </c>
       <c r="R39" t="n">
-        <v>6984821</v>
+        <v>6984691</v>
       </c>
       <c r="S39" t="n">
         <v>10</v>
@@ -4821,12 +4824,12 @@
       </c>
       <c r="Y39" t="inlineStr">
         <is>
-          <t>2021-06-15</t>
+          <t>2023-09-22</t>
         </is>
       </c>
       <c r="AA39" t="inlineStr">
         <is>
-          <t>2021-06-15</t>
+          <t>2023-09-22</t>
         </is>
       </c>
       <c r="AD39" t="b">
@@ -4835,6 +4838,7 @@
       <c r="AE39" t="b">
         <v>0</v>
       </c>
+      <c r="AF39" t="inlineStr"/>
       <c r="AG39" t="b">
         <v>0</v>
       </c>
@@ -4846,7 +4850,7 @@
       </c>
       <c r="AX39" t="inlineStr">
         <is>
-          <t>Thomas Stålhandske, Johan Staaf</t>
+          <t>Thomas Stålhandske, Erik Lundmark</t>
         </is>
       </c>
       <c r="AY39" t="inlineStr">
@@ -4857,10 +4861,10 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>112343638</v>
+        <v>112343630</v>
       </c>
       <c r="B40" t="n">
-        <v>99874</v>
+        <v>78746</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
@@ -4873,21 +4877,21 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>221235</v>
+        <v>6463</v>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Vårärt</t>
+          <t>Bårdlav</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>Lathyrus vernus</t>
+          <t>Nephroma parile</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>(L.) Bernh.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I40" t="inlineStr"/>
@@ -4897,10 +4901,10 @@
         </is>
       </c>
       <c r="Q40" t="n">
-        <v>503363</v>
+        <v>503087</v>
       </c>
       <c r="R40" t="n">
-        <v>6984798</v>
+        <v>6984818</v>
       </c>
       <c r="S40" t="n">
         <v>10</v>
@@ -4963,10 +4967,10 @@
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>112343603</v>
+        <v>112343606</v>
       </c>
       <c r="B41" t="n">
-        <v>89104</v>
+        <v>99874</v>
       </c>
       <c r="C41" t="inlineStr">
         <is>
@@ -4975,41 +4979,38 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E41" t="n">
-        <v>5747</v>
+        <v>221235</v>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Läderdoftande fingersvamp</t>
+          <t>Vårärt</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>Ramaria safraniolens</t>
+          <t>Lathyrus vernus</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>Christian</t>
+          <t>(L.) Bernh.</t>
         </is>
       </c>
       <c r="I41" t="inlineStr"/>
-      <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
-      <c r="N41" t="inlineStr"/>
       <c r="P41" t="inlineStr">
         <is>
           <t>Stamnberget, Jmt</t>
         </is>
       </c>
       <c r="Q41" t="n">
-        <v>503342</v>
+        <v>503317</v>
       </c>
       <c r="R41" t="n">
-        <v>6984691</v>
+        <v>6984760</v>
       </c>
       <c r="S41" t="n">
         <v>10</v>
@@ -5036,12 +5037,12 @@
       </c>
       <c r="Y41" t="inlineStr">
         <is>
-          <t>2023-09-22</t>
+          <t>2023-09-21</t>
         </is>
       </c>
       <c r="AA41" t="inlineStr">
         <is>
-          <t>2023-09-22</t>
+          <t>2023-09-21</t>
         </is>
       </c>
       <c r="AD41" t="b">
@@ -5050,7 +5051,6 @@
       <c r="AE41" t="b">
         <v>0</v>
       </c>
-      <c r="AF41" t="inlineStr"/>
       <c r="AG41" t="b">
         <v>0</v>
       </c>
@@ -5062,7 +5062,7 @@
       </c>
       <c r="AX41" t="inlineStr">
         <is>
-          <t>Thomas Stålhandske, Erik Lundmark</t>
+          <t>Thomas Stålhandske</t>
         </is>
       </c>
       <c r="AY41" t="inlineStr">
@@ -5073,10 +5073,10 @@
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>112343631</v>
+        <v>112343659</v>
       </c>
       <c r="B42" t="n">
-        <v>90480</v>
+        <v>89553</v>
       </c>
       <c r="C42" t="inlineStr">
         <is>
@@ -5085,25 +5085,25 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E42" t="n">
-        <v>4769</v>
+        <v>1202</v>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Svavelriska</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>Lactarius scrobiculatus</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>(Scop.:Fr.) Fr.</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I42" t="inlineStr"/>
@@ -5113,10 +5113,10 @@
         </is>
       </c>
       <c r="Q42" t="n">
-        <v>503318</v>
+        <v>503414</v>
       </c>
       <c r="R42" t="n">
-        <v>6984760</v>
+        <v>6984754</v>
       </c>
       <c r="S42" t="n">
         <v>10</v>
@@ -5143,12 +5143,12 @@
       </c>
       <c r="Y42" t="inlineStr">
         <is>
-          <t>2023-09-21</t>
+          <t>2021-06-15</t>
         </is>
       </c>
       <c r="AA42" t="inlineStr">
         <is>
-          <t>2023-09-21</t>
+          <t>2021-06-15</t>
         </is>
       </c>
       <c r="AD42" t="b">
@@ -5168,7 +5168,7 @@
       </c>
       <c r="AX42" t="inlineStr">
         <is>
-          <t>Thomas Stålhandske</t>
+          <t>Thomas Stålhandske, Johan Staaf</t>
         </is>
       </c>
       <c r="AY42" t="inlineStr">
@@ -5179,10 +5179,10 @@
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>112343659</v>
+        <v>112343635</v>
       </c>
       <c r="B43" t="n">
-        <v>89553</v>
+        <v>99874</v>
       </c>
       <c r="C43" t="inlineStr">
         <is>
@@ -5191,25 +5191,25 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E43" t="n">
-        <v>1202</v>
+        <v>221235</v>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Vårärt</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Lathyrus vernus</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(L.) Bernh.</t>
         </is>
       </c>
       <c r="I43" t="inlineStr"/>
@@ -5219,10 +5219,10 @@
         </is>
       </c>
       <c r="Q43" t="n">
-        <v>503414</v>
+        <v>503342</v>
       </c>
       <c r="R43" t="n">
-        <v>6984754</v>
+        <v>6984700</v>
       </c>
       <c r="S43" t="n">
         <v>10</v>
@@ -5249,12 +5249,12 @@
       </c>
       <c r="Y43" t="inlineStr">
         <is>
-          <t>2021-06-15</t>
+          <t>2023-09-21</t>
         </is>
       </c>
       <c r="AA43" t="inlineStr">
         <is>
-          <t>2021-06-15</t>
+          <t>2023-09-21</t>
         </is>
       </c>
       <c r="AD43" t="b">
@@ -5274,7 +5274,7 @@
       </c>
       <c r="AX43" t="inlineStr">
         <is>
-          <t>Thomas Stålhandske, Johan Staaf</t>
+          <t>Thomas Stålhandske</t>
         </is>
       </c>
       <c r="AY43" t="inlineStr">
